--- a/Projeto/Teste/Rendezvous.xlsx
+++ b/Projeto/Teste/Rendezvous.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Dados de Entrada</t>
   </si>
@@ -166,6 +166,9 @@
     <t>Constantes</t>
   </si>
   <si>
+    <t>Errados:</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
@@ -215,16 +218,39 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Arredondamento - Conferir</t>
+  </si>
+  <si>
+    <t>Analise da ordem das operações artimeticas em relação ao erro na conta</t>
+  </si>
+  <si>
+    <t>Analise de mudança de representação de ponto flutuante entre double e float, em relação ao desempenho e da exatidão da conta</t>
+  </si>
+  <si>
+    <t>Tirar os Warnings gerados pela compilação com -Wall</t>
+  </si>
+  <si>
+    <t>Compilar com -O3</t>
+  </si>
+  <si>
+    <t>Declarar as variaveis de iteração fora dos FOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -237,12 +263,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
-    </font>
-    <font>
-      <b/>
     </font>
   </fonts>
   <fills count="5">
@@ -432,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -443,7 +473,7 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -456,15 +486,16 @@
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
@@ -473,18 +504,18 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
@@ -495,21 +526,26 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="169" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="169" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -530,6 +566,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="8" max="8" width="21.14"/>
+    <col customWidth="1" min="11" max="11" width="15.14"/>
     <col customWidth="1" min="14" max="14" width="15.29"/>
   </cols>
   <sheetData>
@@ -548,48 +586,48 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>1.0</v>
+        <v>-0.725655</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="7">
-        <f>(2*B5)/B10 -3*B3 + ((2*D5)/B10)*LN((D3+1)/D3) - E27</f>
-        <v>3227.936085</v>
+        <f>(2*B5)/B10 -3*B3 + ((2*D5)/B10)*LN((D3+1)/D3) -E27</f>
+        <v>769.002673</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="8">
         <f>2*F2*B10+F6-D2*M27</f>
-        <v>-734256307338</v>
+        <v>50.48163169</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="9">
         <f>pow(H2*H2+H4*H4+H6*H6,-1)</f>
-        <v>0</v>
+        <v>0.0003923688378</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="7">
         <f>J6*J2</f>
-        <v>-0.1218632044</v>
+        <v>-23.43064828</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="10">
         <f>pow(L3-L5,2)-4*(L2-L4)*(L3*L4-L2*L5)</f>
-        <v>0.00000228599026</v>
+        <v>301357.8249</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>1.0</v>
+        <v>2.910444</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -610,28 +648,28 @@
       </c>
       <c r="F3" s="11">
         <f>B6/B10 +(D6/B10)*LN((D3+1)/D3)+F27</f>
-        <v>1577.782004</v>
+        <v>379.3306225</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12">
         <f>F8-2*F3+H27</f>
-        <v>89478826435</v>
+        <v>-1182.921901</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="13">
         <f>H3*H3+H5*H5+H7*H7</f>
-        <v>8.00646E+21</v>
+        <v>1399312.697</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="11">
         <f>J2*J3</f>
-        <v>0.01485064058</v>
+        <v>549.0466965</v>
       </c>
     </row>
     <row r="4">
@@ -639,41 +677,38 @@
         <v>15</v>
       </c>
       <c r="B4" s="4">
-        <v>1.0</v>
+        <v>0.052357</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11">
-        <f>G27</f>
-        <v>0.1976052606</v>
-      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="11">
         <f>F3*B10-D2*N27</f>
-        <v>-8.999759681</v>
+        <v>-0.006706917816</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="13">
         <f>1/(H8*H8+H10*H10+H12*H12)</f>
-        <v>0</v>
+        <v>0.000000001322310691</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="11">
         <f>J7*J4</f>
-        <v>-0.1607469948</v>
+        <v>-0.001835691262</v>
       </c>
     </row>
     <row r="5">
@@ -681,41 +716,41 @@
         <v>21</v>
       </c>
       <c r="B5" s="4">
-        <v>1.0</v>
+        <v>0.005108</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="5">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="11">
         <f>4*B3-(2*B5)/B10-((2*D5)/B10)*LN((D3+1)/D3)</f>
-        <v>-3151.173562</v>
+        <v>-766.0971094</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="11">
         <f>F2+F5+G27</f>
-        <v>76.96012762</v>
+        <v>2.910443878</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="13">
         <f>H9*H9+H11*H11+H13*H13</f>
-        <v>5.39132E+23</v>
+        <v>2548.622377</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="15">
         <f>J4*J5</f>
-        <v>0.02583959634</v>
+        <v>0.000003370070618</v>
       </c>
     </row>
     <row r="6">
@@ -723,34 +758,34 @@
         <v>27</v>
       </c>
       <c r="B6" s="4">
-        <v>1.0</v>
+        <v>-0.006719</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="5">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="11">
         <f>6*B10*B3-3*B5-3*D5*LN((D3+1)/D3)</f>
-        <v>-5.851877206</v>
+        <v>-1.423347208</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="11">
         <f>F10*B10+D2*O27</f>
-        <v>-22.12523339</v>
+        <v>-0.4766488542</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="13">
         <f>H2*H3+H4*H5+H6*H7</f>
-        <v>-6.57004E+22</v>
+        <v>-59715.8745</v>
       </c>
     </row>
     <row r="7">
@@ -758,148 +793,142 @@
         <v>32</v>
       </c>
       <c r="B7" s="4">
-        <v>1.0</v>
+        <v>-1.04E-4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="5">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="11">
-        <f>H27</f>
-        <v>89478828800</v>
-      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="12">
         <f>F9-L27</f>
-        <v>1.097593004</v>
+        <v>0.05723720058</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="16">
         <f>H8*H9+H10*H11+H12*H13</f>
-        <v>-3.35392E+24</v>
+        <v>-1388245.043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="B8" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="12">
         <f>(2*B6/B10) + B2 + (2*D6/B10)*LN((D3+1)/D3) - I27</f>
-        <v>791.0014701</v>
+        <v>-424.1142073</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="11">
         <f>2*F3*pow(B10,2)+pow(D2,2)*P27</f>
-        <v>4567776263775</v>
+        <v>-27499.99736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <f>B16+B8</f>
-        <v>6383</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="19" t="s">
+        <v>6381</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="12">
         <f>B4+J27</f>
-        <v>1.097605234</v>
+        <v>0.05723726176</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="11">
         <f>2*F2*B10+F6-D2*M27</f>
-        <v>-734256307338</v>
+        <v>50.48163169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="24">
         <f>sqrt(B15/pow(B9,3))</f>
-        <v>0.00123803129</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="19" t="s">
+        <v>0.001238613391</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="11">
-        <f>(B7/B10)-(D7/B10)*LN(D3+1/D3)+K27</f>
-        <v>-17871.40147</v>
+        <f>(B7/B10)-(D7/B10)*LN((D3+1)/D3) +K27</f>
+        <v>-384.8294411</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="11">
         <f>pow(D2,2)*Q27 - F2*pow(B10,2)</f>
-        <v>1009.086091</v>
+        <v>45.4533664</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="26" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="15">
-        <f>L27</f>
-        <v>0.00001222996002</v>
-      </c>
+      <c r="F11" s="15"/>
       <c r="G11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="11">
         <f>F3*B10-D2*N27</f>
-        <v>-8.999759681</v>
+        <v>-0.006706917816</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="11">
         <f>-(pow(B10,2)*F9+pow(D2,2)*R27)</f>
-        <v>-0.001181652153</v>
+        <v>-0.0005903501362</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="G13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="29">
         <f>F10*B10+D2*O27</f>
-        <v>-22.12523339</v>
+        <v>-0.4766488542</v>
       </c>
     </row>
     <row r="14">
@@ -907,3676 +936,3705 @@
         <v>50</v>
       </c>
       <c r="B14" s="2"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="29">
+        <v>52</v>
+      </c>
+      <c r="B15" s="30">
         <v>398600.4418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="29">
+        <v>53</v>
+      </c>
+      <c r="B16" s="30">
         <v>6378.0</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="H16" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="I16" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="J16" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="K16" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="L16" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="M16" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="30" t="s">
+      <c r="N16" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="30" t="s">
+      <c r="O16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" s="30" t="s">
+      <c r="P16" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R16" s="30" t="s">
+      <c r="Q16" s="31" t="s">
         <v>66</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="30">
         <v>2.71828</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="32">
         <v>1.0</v>
       </c>
-      <c r="E17" s="32">
-        <f>(pow(-1,D17+1)/(D17*pow(D3,D17))*((2*D5)/(B10)+(D17*D2*D6)/(pow(B9,2)))*(1/(1+pow((D17*D2)/B10,2))))</f>
-        <v>0.00002476062543</v>
-      </c>
-      <c r="F17" s="33">
-        <f>(pow(-1,D17+1)/(D17*pow(D3,D17))*((D6)/(B10)+(2*D17*D2*D5)/(pow(B10,2)))*(1/(1+pow((D17*D2)/B10,2))))</f>
-        <v>0.2000123772</v>
-      </c>
-      <c r="G17" s="32">
-        <f>(pow(-1,D17+1)/(D17*pow(D3,D17)))*(D5+((D17*D2*D6)/pow(B10,2)))*(1/(1+pow((D17*D2)/B10,2)))</f>
-        <v>0.1000000138</v>
-      </c>
-      <c r="H17" s="32">
-        <f>(pow(-1,D17+1)/(D17*pow(D3,D17))*(((2*D6)/B10)+((4*D5)/D17*D2))*(1/1+pow((D17*D2)/B10,2))) - D5/(D17*D2)</f>
-        <v>108008409019</v>
-      </c>
-      <c r="I17" s="32">
-        <f>(pow(-1,D17+1)/(pow(D17,2)*pow(D3,D17))*(3*D5/B10))</f>
-        <v>2423.202082</v>
-      </c>
-      <c r="J17" s="34">
-        <f>((pow(-1,D17+1)*D7*D2)/(pow(D3,D17)*pow(B10,2)))*((1)/(1+(pow(D17*D2/B10,2))))</f>
-        <v>0.09999999847</v>
-      </c>
-      <c r="K17" s="32">
-        <f>((pow(-1,D17+1))/(pow(D17,2)*pow(D3,D17)*B10))*D7*((1)/(1+pow(D17*D2/B10,2)))</f>
-        <v>0.00001238031271</v>
-      </c>
-      <c r="L17" s="32">
-        <f>((pow(-1,D17+1))/(D17*pow(D3,D17)*B10))*(D7)*((1)/(1+pow(D17*D2/B10,2)))</f>
-        <v>0.00001238031271</v>
-      </c>
-      <c r="M17" s="32">
-        <f t="shared" ref="M17:M26" si="1">H17*D17</f>
-        <v>108008409019</v>
-      </c>
-      <c r="N17" s="32">
-        <f t="shared" ref="N17:N26" si="2">G17*D17</f>
-        <v>0.1000000138</v>
-      </c>
-      <c r="O17" s="32">
-        <f t="shared" ref="O17:O26" si="3">L17*D17</f>
-        <v>0.00001238031271</v>
-      </c>
-      <c r="P17" s="32">
-        <f t="shared" ref="P17:P26" si="4">D17*D17*H17</f>
-        <v>108008409019</v>
-      </c>
-      <c r="Q17" s="32">
-        <f t="shared" ref="Q17:Q26" si="5">D17*D17*G17</f>
-        <v>0.1000000138</v>
-      </c>
-      <c r="R17" s="32">
-        <f t="shared" ref="R17:R26" si="6">D17*D17*L17</f>
-        <v>0.00001238031271</v>
+      <c r="E17" s="33">
+        <f t="shared" ref="E17:E26" si="1">(pow(-1,$D17+1)/($D17*pow($D$3,$D17))*((2*$D$5)/($B$10)+($D17*$D$2*$D$6)/(pow($B$10,2)))*(1/(1+pow(($D17*$D$2)/$B$10,2))))</f>
+        <v>0.005000123861</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" ref="F17:F26" si="2">(pow(-1,$D17+1)/($D17*pow($D$3,$D17))*(($D$6)/($B$10)+(2*$D17*$D$2*$D$5)/(pow($B$10,2)))*(1/(1+pow(($D17*$D$2)/$B$10,2))))</f>
+        <v>0.01000006193</v>
+      </c>
+      <c r="G17" s="33">
+        <f t="shared" ref="G17:G26" si="3">(pow(-1,$D17+1)/($D17*pow($D$3,$D17)))*($D$5+(($D17*$D$2*$D$6)/pow($B$10,2)))*(1/(1+pow(($D17*$D$2)/$B$10,2)))</f>
+        <v>0.005000000076</v>
+      </c>
+      <c r="H17" s="33">
+        <f t="shared" ref="H17:H26" si="4">((IF(MOD($D17,2) = 0, -1,1)/($D17*pow($D$3,$D17)))*(((2*$D$6)/$B$10)+((4*$D$5)/$D17*$D$2))/(1+pow(($D17*$D$2)/$B$10,2))) - $D$5/($D17*$D$2)</f>
+        <v>-0.04999984546</v>
+      </c>
+      <c r="I17" s="33">
+        <f t="shared" ref="I17:I26" si="5">(pow(-1,$D17+1)/(pow($D17,2)*pow($D$3,$D17))*(3*$D$5/$B$10))</f>
+        <v>1211.031635</v>
+      </c>
+      <c r="J17" s="35">
+        <f t="shared" ref="J17:J26" si="6">((pow(-1,$D17+1)*$D$7*$D$2)/(pow($D$3,$D17)*pow($B$10,2)))*((1)/(1+(pow($D17*$D$2/$B$10,2))))</f>
+        <v>0.004999999999</v>
+      </c>
+      <c r="K17" s="33">
+        <f t="shared" ref="K17:K26" si="7">((pow(-1,$D17+1))/(pow($D17,2)*pow($D$3,$D17)*$B$10))*$D$7*((1)/(1+pow($D17*$D$2/$B$10,2)))</f>
+        <v>0.00000006193066953</v>
+      </c>
+      <c r="L17" s="33">
+        <f t="shared" ref="L17:L26" si="8">((pow(-1,$D17+1))/($D17*pow($D$3,$D17)*$B$10))*($D$7)*((1)/(1+pow($D17*$D$2/$B$10,2)))</f>
+        <v>0.00000006193066953</v>
+      </c>
+      <c r="M17" s="36">
+        <f t="shared" ref="M17:M26" si="9">$H17*$D17</f>
+        <v>-0.04999984546</v>
+      </c>
+      <c r="N17" s="33">
+        <f t="shared" ref="N17:N26" si="10">$G17*$D17</f>
+        <v>0.005000000076</v>
+      </c>
+      <c r="O17" s="33">
+        <f t="shared" ref="O17:O26" si="11">$L17*$D17</f>
+        <v>0.00000006193066953</v>
+      </c>
+      <c r="P17" s="33">
+        <f t="shared" ref="P17:P26" si="12">$D17*$D17*$H17</f>
+        <v>-0.04999984546</v>
+      </c>
+      <c r="Q17" s="33">
+        <f t="shared" ref="Q17:Q26" si="13">$D17*$D17*$G17</f>
+        <v>0.005000000076</v>
+      </c>
+      <c r="R17" s="33">
+        <f t="shared" ref="R17:R26" si="14">$D17*$D17*$L17</f>
+        <v>0.00000006193066953</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="35">
+      <c r="A18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="37">
         <v>10.0</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="38">
         <v>2.0</v>
       </c>
-      <c r="E18" s="32">
-        <f>(pow(-1,D18+1)/(D18*pow(D3,D18))*((2*D5)/(B10)+(D18*D2*D6)/(pow(B9,2)))+(1/(1+pow((D18*D2)/B10,2))))</f>
-        <v>-80.77340276</v>
-      </c>
-      <c r="F18" s="36">
-        <f>(pow(-1,D18+1)/(D18*pow(D3,D18))*((D6)/(B10)+(2*D18*D2*D5)/(pow(B10,2)))*(1/(1+pow((D18*D2)/B10,2))))</f>
-        <v>-0.005000154735</v>
-      </c>
-      <c r="G18" s="36">
-        <f>(pow(-1,D18+1)/(D18*pow(D3,D18)))*(D5+((D18*D2*D6)/pow(B10,2)))*(1/(1+pow((D18*D2)/B10,2)))</f>
-        <v>-0.002500000182</v>
-      </c>
-      <c r="H18" s="36">
-        <f>(pow(-1,D18+1)/(D18*pow(D3,D18))*(((2*D6)/B10)+((4*D5)/D18*D2))*(1/1+pow((D18*D2)/B10,2))) - D5/(D18*D2)</f>
-        <v>-21340707851</v>
-      </c>
-      <c r="I18" s="36">
-        <f>(pow(-1,D18+1)/(pow(D18,2)*pow(D3,D18))*(3*D5/B10))</f>
-        <v>-60.58005205</v>
-      </c>
-      <c r="J18" s="36">
-        <f>((pow(-1,D18+1)*D7*D2)/(pow(D3,D18)*pow(B10,2)))*((1)/(1+(pow(D18*D2/B10,2))))</f>
-        <v>-0.00249999999</v>
-      </c>
-      <c r="K18" s="36">
-        <f>((pow(-1,D18+1))/(pow(D18,2)*pow(D3,D18)*B10))*D7*((1)/(1+pow(D17*D2/B10,2)))</f>
-        <v>-0.0000003095078178</v>
-      </c>
-      <c r="L18" s="36">
-        <f>((pow(-1,D18+1))/(D18*pow(D3,D18)*B10))*(D7)*((1)/(1+pow(D18*D2/B10,2)))</f>
-        <v>-0.0000001547539107</v>
-      </c>
-      <c r="M18" s="32">
+      <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>-42681415703</v>
-      </c>
-      <c r="N18" s="32">
+        <v>-0.0001250015483</v>
+      </c>
+      <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>-0.005000000364</v>
-      </c>
-      <c r="O18" s="32">
+        <v>-0.0002500007741</v>
+      </c>
+      <c r="G18" s="33">
         <f t="shared" si="3"/>
-        <v>-0.0000003095078213</v>
-      </c>
-      <c r="P18" s="32">
+        <v>-0.000125000001</v>
+      </c>
+      <c r="H18" s="33">
         <f t="shared" si="4"/>
-        <v>-85362831406</v>
-      </c>
-      <c r="Q18" s="32">
+        <v>-0.02500000174</v>
+      </c>
+      <c r="I18" s="33">
         <f t="shared" si="5"/>
-        <v>-0.01000000073</v>
-      </c>
-      <c r="R18" s="32">
+        <v>-30.27579088</v>
+      </c>
+      <c r="J18" s="35">
         <f t="shared" si="6"/>
-        <v>-0.0000006190156427</v>
+        <v>-0.000125</v>
+      </c>
+      <c r="K18" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.0000000003870666846</v>
+      </c>
+      <c r="L18" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.0000000007741333693</v>
+      </c>
+      <c r="M18" s="36">
+        <f t="shared" si="9"/>
+        <v>-0.05000000348</v>
+      </c>
+      <c r="N18" s="33">
+        <f t="shared" si="10"/>
+        <v>-0.0002500000019</v>
+      </c>
+      <c r="O18" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.000000001548266739</v>
+      </c>
+      <c r="P18" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.100000007</v>
+      </c>
+      <c r="Q18" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.0005000000038</v>
+      </c>
+      <c r="R18" s="33">
+        <f t="shared" si="14"/>
+        <v>-0.000000003096533477</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="27"/>
-      <c r="D19" s="34">
+      <c r="B19" s="28"/>
+      <c r="D19" s="38">
         <v>3.0</v>
       </c>
-      <c r="E19" s="32">
-        <f>(pow(-1,D19+1)/(D19*pow(D3,D19))*((2*D5)/(B10)+(D19*D2*D6)/(pow(B9,2)))+(1/(1+pow((D19*D2)/B10,2))))</f>
-        <v>5.38489352</v>
-      </c>
-      <c r="F19" s="36">
-        <f>(pow(-1,D19+1)/(D19*pow(D3,D19))*((D6)/(B10)+(2*D19*D2*D5)/(pow(B10,2)))*(1/(1+pow((D19*D2)/B10,2))))</f>
-        <v>0.0002222268071</v>
-      </c>
-      <c r="G19" s="36">
-        <f>(pow(-1,D19+1)/(D19*pow(D3,D19)))*(D5+((D19*D2*D6)/pow(B10,2)))*(1/(1+pow((D19*D2)/B10,2)))</f>
-        <v>0.0001111111166</v>
-      </c>
-      <c r="H19" s="36">
-        <f>(pow(-1,D19+1)/(D19*pow(D3,D19))*(((2*D6)/B10)+((4*D5)/D19*D2))*(1/1+pow((D19*D2)/B10,2))) - D5/(D19*D2)</f>
-        <v>3188057485</v>
-      </c>
-      <c r="I19" s="36">
-        <f>(pow(-1,D19+1)/(pow(D19,2)*pow(D3,D19))*(3*D5/B10))</f>
-        <v>2.692446758</v>
-      </c>
-      <c r="J19" s="36">
-        <f>((pow(-1,D19+1)*D7*D2)/(pow(D3,D19)*pow(B10,2)))*((1)/(1+(pow(D19*D2/B10,2))))</f>
-        <v>0.0001111111109</v>
-      </c>
-      <c r="K19" s="36">
-        <f>((pow(-1,D19+1))/(pow(D19,2)*pow(D3,D19)*B10))*D7*((1)/(1+pow(D19*D2/B10,2)))</f>
-        <v>0.000000001528433689</v>
-      </c>
-      <c r="L19" s="36">
-        <f>((pow(-1,D19+1))/(D19*pow(D3,D19)*B10))*(D7)*((1)/(1+pow(D19*D2/B10,2)))</f>
-        <v>0.000000004585301067</v>
-      </c>
-      <c r="M19" s="32">
+      <c r="E19" s="33">
         <f t="shared" si="1"/>
-        <v>9564172456</v>
-      </c>
-      <c r="N19" s="32">
+        <v>0.00000555560143</v>
+      </c>
+      <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>0.0003333333498</v>
-      </c>
-      <c r="O19" s="32">
+        <v>0.00001111113405</v>
+      </c>
+      <c r="G19" s="33">
         <f t="shared" si="3"/>
-        <v>0.0000000137559032</v>
-      </c>
-      <c r="P19" s="32">
+        <v>0.000005555555584</v>
+      </c>
+      <c r="H19" s="33">
         <f t="shared" si="4"/>
-        <v>28692517368</v>
-      </c>
-      <c r="Q19" s="32">
+        <v>-0.01666666662</v>
+      </c>
+      <c r="I19" s="33">
         <f t="shared" si="5"/>
-        <v>0.001000000049</v>
-      </c>
-      <c r="R19" s="32">
+        <v>1.345590706</v>
+      </c>
+      <c r="J19" s="35">
         <f t="shared" si="6"/>
-        <v>0.0000000412677096</v>
+        <v>0.000005555555555</v>
+      </c>
+      <c r="K19" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="36">
+        <f t="shared" si="9"/>
+        <v>-0.04999999985</v>
+      </c>
+      <c r="N19" s="33">
+        <f t="shared" si="10"/>
+        <v>0.00001666666675</v>
+      </c>
+      <c r="O19" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.1499999996</v>
+      </c>
+      <c r="Q19" s="33">
+        <f t="shared" si="13"/>
+        <v>0.00005000000025</v>
+      </c>
+      <c r="R19" s="33">
+        <f t="shared" si="14"/>
+        <v>0.0000000002064355651</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="27"/>
-      <c r="D20" s="34">
+      <c r="B20" s="28"/>
+      <c r="D20" s="38">
         <v>4.0</v>
       </c>
-      <c r="E20" s="32">
-        <f>(pow(-1,D20+1)/(D20*pow(D3,D20))*((2*D5)/(B10)+(D20*D2*D6)/(pow(B9,2)))+(1/(1+pow((D20*D2)/B10,2))))</f>
-        <v>-0.403867013</v>
-      </c>
-      <c r="F20" s="36">
-        <f>(pow(-1,D20+1)/(D20*pow(D3,D20))*((D6)/(B10)+(2*D20*D2*D5)/(pow(B10,2)))*(1/(1+pow((D20*D2)/B10,2))))</f>
-        <v>-0.00001250019343</v>
-      </c>
-      <c r="G20" s="36">
-        <f>(pow(-1,D20+1)/(D20*pow(D3,D20)))*(D5+((D20*D2*D6)/pow(B10,2)))*(1/(1+pow((D20*D2)/B10,2)))</f>
-        <v>-0.000006250000234</v>
-      </c>
-      <c r="H20" s="36">
-        <f>(pow(-1,D20+1)/(D20*pow(D3,D20))*(((2*D6)/B10)+((4*D5)/D20*D2))*(1/1+pow((D20*D2)/B10,2))) - D5/(D20*D2)</f>
-        <v>-424204419</v>
-      </c>
-      <c r="I20" s="36">
-        <f>(pow(-1,D20+1)/(pow(D20,2)*pow(D3,D20))*(3*D5/B10))</f>
-        <v>-0.1514501301</v>
-      </c>
-      <c r="J20" s="36">
-        <f>((pow(-1,D20+1)*D7*D2)/(pow(D3,D20)*pow(B10,2)))*((1)/(1+(pow(D20*D2/B10,2))))</f>
-        <v>-0.000006249999994</v>
-      </c>
-      <c r="K20" s="32">
-        <f>((pow(-1,D20+1))/(pow(D20,2)*pow(D3,D20)*B10))*D7*((1)/(1+pow(D20*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="36">
-        <f>((pow(-1,D20+1))/(D20*pow(D3,D20)*B10))*(D7)*((1)/(1+pow(D20*D2/B10,2)))</f>
-        <v>-0.0000000001934423889</v>
-      </c>
-      <c r="M20" s="32">
+      <c r="E20" s="33">
         <f t="shared" si="1"/>
-        <v>-1696817676</v>
-      </c>
-      <c r="N20" s="32">
+        <v>-0.0000003125019353</v>
+      </c>
+      <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>-0.00002500000093</v>
-      </c>
-      <c r="O20" s="32">
+        <v>-0.0000006250009677</v>
+      </c>
+      <c r="G20" s="33">
         <f t="shared" si="3"/>
-        <v>-0.0000000007737695556</v>
-      </c>
-      <c r="P20" s="32">
+        <v>-0.0000003125000012</v>
+      </c>
+      <c r="H20" s="33">
         <f t="shared" si="4"/>
-        <v>-6787270704</v>
-      </c>
-      <c r="Q20" s="32">
+        <v>-0.0125</v>
+      </c>
+      <c r="I20" s="33">
         <f t="shared" si="5"/>
-        <v>-0.0001000000037</v>
-      </c>
-      <c r="R20" s="32">
+        <v>-0.07568947719</v>
+      </c>
+      <c r="J20" s="35">
         <f t="shared" si="6"/>
-        <v>-0.000000003095078222</v>
+        <v>-0.0000003125</v>
+      </c>
+      <c r="K20" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="36">
+        <f t="shared" si="9"/>
+        <v>-0.05000000001</v>
+      </c>
+      <c r="N20" s="33">
+        <f t="shared" si="10"/>
+        <v>-0.000001250000005</v>
+      </c>
+      <c r="O20" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.2</v>
+      </c>
+      <c r="Q20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.000005000000019</v>
+      </c>
+      <c r="R20" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="27"/>
-      <c r="D21" s="34">
+      <c r="B21" s="28"/>
+      <c r="D21" s="38">
         <v>5.0</v>
       </c>
-      <c r="E21" s="32">
-        <f>(pow(-1,D21+1)/(D21*pow(D3,D21))*((2*D5)/(B10)+(D21*D2*D6)/(pow(B9,2)))+(1/(1+pow((D21*D2)/B10,2))))</f>
-        <v>0.03230936173</v>
-      </c>
-      <c r="F21" s="36">
-        <f>(pow(-1,D21+1)/(D21*pow(D3,D21))*((D6)/(B10)+(2*D21*D2*D5)/(pow(B10,2)))*(1/(1+pow((D21*D2)/B10,2))))</f>
-        <v>0.0000008000099038</v>
-      </c>
-      <c r="G21" s="36">
-        <f>(pow(-1,D21+1)/(D21*pow(D3,D21)))*(D5+((D21*D2*D6)/pow(B10,2)))*(1/(1+pow((D21*D2)/B10,2)))</f>
-        <v>0.000000400000012</v>
-      </c>
-      <c r="H21" s="36">
-        <f>(pow(-1,D21+1)/(D21*pow(D3,D21))*(((2*D6)/B10)+((4*D5)/D21*D2))*(1/1+pow((D21*D2)/B10,2))) - D5/(D21*D2)</f>
-        <v>52960308.7</v>
-      </c>
-      <c r="I21" s="36">
-        <f>(pow(-1,D21+1)/(pow(D21,2)*pow(D3,D21))*(3*D5/B10))</f>
-        <v>0.009692808329</v>
-      </c>
-      <c r="J21" s="36">
-        <f>((pow(-1,D21+1)*D7*D2)/(pow(D3,D21)*pow(B10,2)))*((1)/(1+(pow(D21*D2/B10,2))))</f>
-        <v>0.0000003999999998</v>
-      </c>
-      <c r="K21" s="36">
-        <f>((pow(-1,D21+1))/(pow(D21,2)*pow(D3,D21)*B10))*D7*((1)/(1+pow(D21*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="36">
-        <f>((pow(-1,D21+1))/(D21*pow(D3,D21)*B10))*(D7)*((1)/(1+pow(D21*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="32">
+      <c r="E21" s="33">
         <f t="shared" si="1"/>
-        <v>264801543.5</v>
-      </c>
-      <c r="N21" s="32">
+        <v>0.00000002000009909</v>
+      </c>
+      <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>0.00000200000006</v>
-      </c>
-      <c r="O21" s="32">
+        <v>0.00000004000004954</v>
+      </c>
+      <c r="G21" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="32">
+        <v>0.00000002000000006</v>
+      </c>
+      <c r="H21" s="33">
         <f t="shared" si="4"/>
-        <v>1324007718</v>
-      </c>
-      <c r="Q21" s="32">
+        <v>-0.01</v>
+      </c>
+      <c r="I21" s="33">
         <f t="shared" si="5"/>
-        <v>0.0000100000003</v>
-      </c>
-      <c r="R21" s="32">
+        <v>0.00484412654</v>
+      </c>
+      <c r="J21" s="35">
         <f t="shared" si="6"/>
-        <v>0.0000000002476062579</v>
+        <v>0.00000002</v>
+      </c>
+      <c r="K21" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="36">
+        <f t="shared" si="9"/>
+        <v>-0.05</v>
+      </c>
+      <c r="N21" s="33">
+        <f t="shared" si="10"/>
+        <v>0.0000001000000003</v>
+      </c>
+      <c r="O21" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.25</v>
+      </c>
+      <c r="Q21" s="33">
+        <f t="shared" si="13"/>
+        <v>0.0000005000000015</v>
+      </c>
+      <c r="R21" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="27"/>
-      <c r="D22" s="34">
+      <c r="B22" s="28"/>
+      <c r="D22" s="38">
         <v>6.0</v>
       </c>
-      <c r="E22" s="32">
-        <f>(pow(-1,D22+1)/(D22*pow(D3,D22))*((2*D5)/(B10)+(D22*D2*D6)/(pow(B9,2)))+(1/(1+pow((D22*D2)/B10,2))))</f>
-        <v>-0.002692446335</v>
-      </c>
-      <c r="F22" s="36">
-        <f>(pow(-1,D22+1)/(D22*pow(D3,D22))*((D6)/(B10)+(2*D22*D2*D5)/(pow(B10,2)))*(1/(1+pow((D22*D2)/B10,2))))</f>
-        <v>-0.00000005555612869</v>
-      </c>
-      <c r="G22" s="36">
-        <f>(pow(-1,D22+1)/(D22*pow(D3,D22)))*(D5+((D22*D2*D6)/pow(B10,2)))*(1/(1+pow((D22*D2)/B10,2)))</f>
-        <v>-0.00000002777777848</v>
-      </c>
-      <c r="H22" s="36">
-        <f>(pow(-1,D22+1)/(D22*pow(D3,D22))*(((2*D6)/B10)+((4*D5)/D22*D2))*(1/1+pow((D22*D2)/B10,2))) - D5/(D22*D2)</f>
-        <v>-6350017.759</v>
-      </c>
-      <c r="I22" s="36">
-        <f>(pow(-1,D22+1)/(pow(D22,2)*pow(D3,D22))*(3*D5/B10))</f>
-        <v>-0.0006731116895</v>
-      </c>
-      <c r="J22" s="36">
-        <f>((pow(-1,D22+1)*D7*D2)/(pow(D3,D22)*pow(B10,2)))*((1)/(1+(pow(D22*D2/B10,2))))</f>
-        <v>-0.00000002777777777</v>
-      </c>
-      <c r="K22" s="36">
-        <f>((pow(-1,D22+1))/(pow(D22,2)*pow(D3,D22)*B10))*D7*((1)/(1+pow(D22*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="36">
-        <f>((pow(-1,D22+1))/(D22*pow(D3,D22)*B10))*(D7)*((1)/(1+pow(D22*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="32">
+      <c r="E22" s="33">
         <f t="shared" si="1"/>
-        <v>-38100106.56</v>
-      </c>
-      <c r="N22" s="32">
+        <v>-0.000000001388894623</v>
+      </c>
+      <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>-0.0000001666666709</v>
-      </c>
-      <c r="O22" s="32">
+        <v>-0.000000002777780645</v>
+      </c>
+      <c r="G22" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="32">
+        <v>-0.000000001388888892</v>
+      </c>
+      <c r="H22" s="33">
         <f t="shared" si="4"/>
-        <v>-228600639.3</v>
-      </c>
-      <c r="Q22" s="32">
+        <v>-0.008333333333</v>
+      </c>
+      <c r="I22" s="33">
         <f t="shared" si="5"/>
-        <v>-0.000001000000025</v>
-      </c>
-      <c r="R22" s="32">
+        <v>-0.0003363976764</v>
+      </c>
+      <c r="J22" s="35">
         <f t="shared" si="6"/>
+        <v>-0.000000001388888889</v>
+      </c>
+      <c r="K22" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="36">
+        <f t="shared" si="9"/>
+        <v>-0.05</v>
+      </c>
+      <c r="N22" s="33">
+        <f t="shared" si="10"/>
+        <v>-0.000000008333333355</v>
+      </c>
+      <c r="O22" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.3</v>
+      </c>
+      <c r="Q22" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.00000005000000013</v>
+      </c>
+      <c r="R22" s="33">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="27"/>
-      <c r="D23" s="34">
+      <c r="B23" s="28"/>
+      <c r="D23" s="38">
         <v>7.0</v>
       </c>
-      <c r="E23" s="32">
-        <f>(pow(-1,D23+1)/(D23*pow(D3,D23))*((2*D5)/(B10)+(D23*D2*D6)/(pow(B9,2)))+(1/(1+pow((D23*D2)/B10,2))))</f>
-        <v>0.0002307814637</v>
-      </c>
-      <c r="F23" s="36">
-        <f>(pow(-1,D23+1)/(D23*pow(D3,D23))*((D6)/(B10)+(2*D23*D2*D5)/(pow(B10,2)))*(1/(1+pow((D23*D2)/B10,2))))</f>
-        <v>0.000000004081668746</v>
-      </c>
-      <c r="G23" s="36">
-        <f>(pow(-1,D24+1)/(D24*pow(D3,D24)))*(D5+((D24*D2*D6)/pow(B10,2)))*(1/(1+pow((D24*D2)/B10,2)))</f>
-        <v>-0.000000000156250003</v>
-      </c>
-      <c r="H23" s="36">
-        <f>(pow(-1,D23+1)/(D23*pow(D3,D23))*(((2*D6)/B10)+((4*D5)/D23*D2))*(1/1+pow((D23*D2)/B10,2))) - D5/(D23*D2)</f>
-        <v>740400.2867</v>
-      </c>
-      <c r="I23" s="36">
-        <f>(pow(-1,D23+1)/(pow(D23,2)*pow(D3,D23))*(3*D5/B10))</f>
-        <v>0.00004945310372</v>
-      </c>
-      <c r="J23" s="36">
-        <f>((pow(-1,D23+1)*D7*D2)/(pow(D3,D23)*pow(B10,2)))*((1)/(1+(pow(D23*D2/B10,2))))</f>
-        <v>0.000000002040816326</v>
-      </c>
-      <c r="K23" s="36">
-        <f>((pow(-1,D23+1))/(pow(D23,2)*pow(D3,D23)*B10))*D7*((1)/(1+pow(D23*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="36">
-        <f>((pow(-1,D23+1))/(D23*pow(D3,D23)*B10))*(D7)*((1)/(1+pow(D23*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="32">
+      <c r="E23" s="33">
         <f t="shared" si="1"/>
-        <v>5182802.007</v>
-      </c>
-      <c r="N23" s="32">
+        <v>0.0000000001020411774</v>
+      </c>
+      <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>-0.000000001093750021</v>
-      </c>
-      <c r="O23" s="32">
+        <v>0.0000000002040818132</v>
+      </c>
+      <c r="G23" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="32">
+        <v>0.0000000001020408165</v>
+      </c>
+      <c r="H23" s="33">
         <f t="shared" si="4"/>
-        <v>36279614.05</v>
-      </c>
-      <c r="Q23" s="32">
+        <v>-0.007142857143</v>
+      </c>
+      <c r="I23" s="33">
         <f t="shared" si="5"/>
-        <v>-0.000000007656250145</v>
-      </c>
-      <c r="R23" s="32">
+        <v>0.00002471493133</v>
+      </c>
+      <c r="J23" s="35">
         <f t="shared" si="6"/>
+        <v>0.0000000001020408163</v>
+      </c>
+      <c r="K23" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="36">
+        <f t="shared" si="9"/>
+        <v>-0.05</v>
+      </c>
+      <c r="N23" s="33">
+        <f t="shared" si="10"/>
+        <v>0.0000000007142857158</v>
+      </c>
+      <c r="O23" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.35</v>
+      </c>
+      <c r="Q23" s="33">
+        <f t="shared" si="13"/>
+        <v>0.000000005000000011</v>
+      </c>
+      <c r="R23" s="33">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="27"/>
-      <c r="D24" s="34">
+      <c r="B24" s="28"/>
+      <c r="D24" s="38">
         <v>8.0</v>
       </c>
-      <c r="E24" s="32">
-        <f>(pow(-1,D24+1)/(D24*pow(D3,D24))*((2*D5)/(B10)+(D24*D2*D6)/(pow(B9,2)))+(1/(1+pow((D24*D2)/B10,2))))</f>
-        <v>-0.00002019311122</v>
-      </c>
-      <c r="F24" s="36">
-        <f>(pow(-1,D24+1)/(D24*pow(D3,D24))*((D6)/(B10)+(2*D24*D2*D5)/(pow(B10,2)))*(1/(1+pow((D24*D2)/B10,2))))</f>
-        <v>-0.000000000312502418</v>
-      </c>
-      <c r="G24" s="36">
-        <f>(pow(-1,D25+1)/(D25*pow(D3,D25)))*(D5+((D25*D2*D6)/pow(B10,2)))*(1/(1+pow((D25*D2)/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="36">
-        <f>(pow(-1,D24+1)/(D24*pow(D3,D24))*(((2*D6)/B10)+((4*D5)/D24*D2))*(1/1+pow((D24*D2)/B10,2))) - D5/(D24*D2)</f>
-        <v>-84580.03499</v>
-      </c>
-      <c r="I24" s="36">
-        <f>(pow(-1,D24+1)/(pow(D24,2)*pow(D3,D24))*(3*D5/B10))</f>
-        <v>-0.000003786253253</v>
-      </c>
-      <c r="J24" s="36">
-        <f>((pow(-1,D24+1)*D7*D2)/(pow(D3,D24)*pow(B10,2)))*((1)/(1+(pow(D24*D2/B10,2))))</f>
-        <v>-0.00000000015625</v>
-      </c>
-      <c r="K24" s="36">
-        <f>((pow(-1,D24+1))/(pow(D24,2)*pow(D3,D24)*B10))*D7*((1)/(1+pow(D24*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="36">
-        <f>((pow(-1,D24+1))/(D24*pow(D3,D24)*B10))*(D7)*((1)/(1+pow(D24*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="32">
+      <c r="E24" s="33">
         <f t="shared" si="1"/>
-        <v>-676640.2799</v>
-      </c>
-      <c r="N24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="32">
+      <c r="G24" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P24" s="32">
+      <c r="H24" s="33">
         <f t="shared" si="4"/>
-        <v>-5413122.239</v>
-      </c>
-      <c r="Q24" s="32">
+        <v>-0.00625</v>
+      </c>
+      <c r="I24" s="33">
         <f t="shared" si="5"/>
-        <v>0.0000000007901234701</v>
-      </c>
-      <c r="R24" s="32">
+        <v>-0.00000189223693</v>
+      </c>
+      <c r="J24" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K24" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="36">
+        <f t="shared" si="9"/>
+        <v>-0.05</v>
+      </c>
+      <c r="N24" s="33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.4</v>
+      </c>
+      <c r="Q24" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.000000000500000001</v>
+      </c>
+      <c r="R24" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="27"/>
-      <c r="D25" s="34">
+      <c r="B25" s="28"/>
+      <c r="D25" s="38">
         <v>9.0</v>
       </c>
-      <c r="E25" s="32">
-        <f>(pow(-1,D25+1)/(D25*pow(D3,D25))*((2*D5)/(B10)+(D25*D2*D6)/(pow(B9,2)))+(1/(1+pow((D25*D2)/B10,2))))</f>
-        <v>0.000001795153733</v>
-      </c>
-      <c r="F25" s="36">
-        <f>(pow(-1,D25+1)/(D25*pow(D3,D25))*((D6)/(B10)+(2*D25*D2*D5)/(pow(B10,2)))*(1/(1+pow((D25*D2)/B10,2))))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="36">
-        <f>(pow(-1,D26+1)/(D26*pow(D3,D26)))*(D5+((D26*D2*D6)/pow(B10,2)))*(1/(1+pow((D26*D2)/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="36">
-        <f>(pow(-1,D25+1)/(D25*pow(D3,D25))*(((2*D6)/B10)+((4*D5)/D25*D2))*(1/1+pow((D25*D2)/B10,2))) - D5/(D25*D2)</f>
-        <v>9511.866591</v>
-      </c>
-      <c r="I25" s="36">
-        <f>(pow(-1,D25+1)/(pow(D25,2)*pow(D3,D25))*(3*D5/B10))</f>
-        <v>0.0000002991607509</v>
-      </c>
-      <c r="J25" s="36">
-        <f>((pow(-1,D25+1)*D7*D2)/(pow(D3,D25)*pow(B10,2)))*((1)/(1+(pow(D25*D2/B10,2))))</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="36">
-        <f>((pow(-1,D25+1))/(pow(D25,2)*pow(D3,D25)*B10))*D7*((1)/(1+pow(D25*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="36">
-        <f>((pow(-1,D25+1))/(D25*pow(D3,D25)*B10))*(D7)*((1)/(1+pow(D25*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="32">
+      <c r="E25" s="33">
         <f t="shared" si="1"/>
-        <v>85606.79932</v>
-      </c>
-      <c r="N25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="32">
+      <c r="G25" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P25" s="32">
+      <c r="H25" s="33">
         <f t="shared" si="4"/>
-        <v>770461.1938</v>
-      </c>
-      <c r="Q25" s="32">
+        <v>-0.005555555556</v>
+      </c>
+      <c r="I25" s="33">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="32">
+        <v>0.0000001495100784</v>
+      </c>
+      <c r="J25" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K25" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="36">
+        <f t="shared" si="9"/>
+        <v>-0.05</v>
+      </c>
+      <c r="N25" s="33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.45</v>
+      </c>
+      <c r="Q25" s="33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="27"/>
-      <c r="D26" s="34">
+      <c r="B26" s="28"/>
+      <c r="D26" s="38">
         <v>10.0</v>
       </c>
-      <c r="E26" s="32">
-        <f>(pow(-1,D26+1)/(D26*pow(D3,D26))*((2*D5)/(B10)+(D26*D2*D6)/(pow(B9,2)))+(1/(1+pow((D26*D2)/B10,2))))</f>
-        <v>-0.0000001613935336</v>
-      </c>
-      <c r="F26" s="36">
-        <f>(pow(-1,D26+1)/(D26*pow(D3,D26))*((D6)/(B10)+(2*D26*D2*D5)/(pow(B10,2)))*(1/(1+pow((D26*D2)/B10,2))))</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="36">
-        <f>(pow(-1,D17+1)/(D17*pow(D3,D17)))*(D5+((D17*D2*D6)/pow(B10,2)))*(1/(1+pow((D17*D2)/B10,2)))</f>
-        <v>0.1000000138</v>
-      </c>
-      <c r="H26" s="36">
-        <f>(pow(-1,D26+1)/(D26*pow(D3,D26))*(((2*D6)/B10)+((4*D5)/D26*D2))*(1/1+pow((D26*D2)/B10,2))) - D5/(D26*D2)</f>
-        <v>-1056.69644</v>
-      </c>
-      <c r="I26" s="36">
-        <f>(pow(-1,D26+1)/(pow(D26,2)*pow(D3,D26))*(3*D5/B10))</f>
-        <v>-0.00000002423202082</v>
-      </c>
-      <c r="J26" s="36">
-        <f>((pow(-1,D26+1)*D7*D2)/(pow(D3,D26)*pow(B10,2)))*((1)/(1+(pow(D26*D2/B10,2))))</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="36">
-        <f>((pow(-1,D26+1))/(pow(D26,2)*pow(D3,D26)*B10))*D7*((1)/(1+pow(D26*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="36">
-        <f>((pow(-1,D26+1))/(D26*pow(D3,D26)*B10))*(D7)*((1)/(1+pow(D26*D2/B10,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="32">
+      <c r="E26" s="33">
         <f t="shared" si="1"/>
-        <v>-10566.9644</v>
-      </c>
-      <c r="N26" s="32">
+        <v>0</v>
+      </c>
+      <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>1.000000138</v>
-      </c>
-      <c r="O26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P26" s="32">
+      <c r="H26" s="33">
         <f t="shared" si="4"/>
-        <v>-105669.644</v>
-      </c>
-      <c r="Q26" s="32">
+        <v>-0.005</v>
+      </c>
+      <c r="I26" s="33">
         <f t="shared" si="5"/>
-        <v>10.00000138</v>
-      </c>
-      <c r="R26" s="32">
+        <v>-0.00000001211031635</v>
+      </c>
+      <c r="J26" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K26" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="36">
+        <f t="shared" si="9"/>
+        <v>-0.05</v>
+      </c>
+      <c r="N26" s="33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q26" s="33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="27"/>
-      <c r="D27" s="37" t="s">
+      <c r="B27" s="28"/>
+      <c r="D27" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="38">
-        <f t="shared" ref="E27:R27" si="7">Sum(E17:E26)</f>
-        <v>-75.76252235</v>
-      </c>
-      <c r="F27" s="38">
-        <f t="shared" si="7"/>
-        <v>0.1952226974</v>
-      </c>
-      <c r="G27" s="38">
-        <f t="shared" si="7"/>
-        <v>0.1976052606</v>
-      </c>
-      <c r="H27" s="38">
-        <f t="shared" si="7"/>
-        <v>89478828800</v>
-      </c>
-      <c r="I27" s="38">
-        <f t="shared" si="7"/>
-        <v>2365.172092</v>
-      </c>
-      <c r="J27" s="38">
-        <f t="shared" si="7"/>
-        <v>0.09760523371</v>
-      </c>
-      <c r="K27" s="38">
-        <f t="shared" si="7"/>
-        <v>0.00001207228686</v>
-      </c>
-      <c r="L27" s="38">
-        <f t="shared" si="7"/>
-        <v>0.00001222996002</v>
-      </c>
-      <c r="M27" s="38">
-        <f t="shared" si="7"/>
-        <v>73425630734</v>
-      </c>
-      <c r="N27" s="38">
-        <f t="shared" si="7"/>
-        <v>1.095310317</v>
-      </c>
-      <c r="O27" s="38">
-        <f t="shared" si="7"/>
-        <v>0.00001208383334</v>
-      </c>
-      <c r="P27" s="38">
-        <f t="shared" si="7"/>
-        <v>45677762638</v>
-      </c>
-      <c r="Q27" s="38">
-        <f t="shared" si="7"/>
-        <v>10.09091039</v>
-      </c>
-      <c r="R27" s="38">
-        <f t="shared" si="7"/>
-        <v>0.0000117996983</v>
+      <c r="E27" s="40">
+        <f t="shared" ref="E27:R27" si="15">Sum(E17:E26)</f>
+        <v>0.004880384118</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" si="15"/>
+        <v>0.0097605847</v>
+      </c>
+      <c r="G27" s="40">
+        <f t="shared" si="15"/>
+        <v>0.004880261836</v>
+      </c>
+      <c r="H27" s="40">
+        <f t="shared" si="15"/>
+        <v>-0.1464482598</v>
+      </c>
+      <c r="I27" s="40">
+        <f t="shared" si="15"/>
+        <v>1182.030276</v>
+      </c>
+      <c r="J27" s="40">
+        <f t="shared" si="15"/>
+        <v>0.004880261761</v>
+      </c>
+      <c r="K27" s="40">
+        <f t="shared" si="15"/>
+        <v>0.00000006155101615</v>
+      </c>
+      <c r="L27" s="40">
+        <f t="shared" si="15"/>
+        <v>0.00000006117855263</v>
+      </c>
+      <c r="M27" s="41">
+        <f t="shared" si="15"/>
+        <v>-0.4999998488</v>
+      </c>
+      <c r="N27" s="40">
+        <f t="shared" si="15"/>
+        <v>0.004765509064</v>
+      </c>
+      <c r="O27" s="40">
+        <f t="shared" si="15"/>
+        <v>0.00000006044757568</v>
+      </c>
+      <c r="P27" s="40">
+        <f t="shared" si="15"/>
+        <v>-2.749999852</v>
+      </c>
+      <c r="Q27" s="40">
+        <f t="shared" si="15"/>
+        <v>0.004545454617</v>
+      </c>
+      <c r="R27" s="40">
+        <f t="shared" si="15"/>
+        <v>0.00000005902623249</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="27"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="28"/>
+      <c r="D28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="P28" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30">
-      <c r="B30" s="27"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31">
-      <c r="B31" s="27"/>
+      <c r="A31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="28"/>
     </row>
     <row r="32">
-      <c r="B32" s="27"/>
+      <c r="A32" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="28"/>
     </row>
     <row r="33">
-      <c r="B33" s="27"/>
+      <c r="B33" s="28"/>
     </row>
     <row r="34">
-      <c r="B34" s="27"/>
+      <c r="A34" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="28"/>
     </row>
     <row r="35">
-      <c r="B35" s="27"/>
+      <c r="A35" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="28"/>
     </row>
     <row r="36">
-      <c r="B36" s="27"/>
+      <c r="A36" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="28"/>
     </row>
     <row r="37">
-      <c r="B37" s="27"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38">
-      <c r="B38" s="27"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39">
-      <c r="B39" s="27"/>
+      <c r="B39" s="28"/>
     </row>
     <row r="40">
-      <c r="B40" s="27"/>
+      <c r="B40" s="28"/>
     </row>
     <row r="41">
-      <c r="B41" s="27"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42">
-      <c r="B42" s="27"/>
+      <c r="B42" s="28"/>
     </row>
     <row r="43">
-      <c r="B43" s="27"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44">
-      <c r="B44" s="27"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45">
-      <c r="B45" s="27"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46">
-      <c r="B46" s="27"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47">
-      <c r="B47" s="27"/>
+      <c r="B47" s="28"/>
     </row>
     <row r="48">
-      <c r="B48" s="27"/>
+      <c r="B48" s="28"/>
     </row>
     <row r="49">
-      <c r="B49" s="27"/>
+      <c r="B49" s="28"/>
     </row>
     <row r="50">
-      <c r="B50" s="27"/>
+      <c r="B50" s="28"/>
     </row>
     <row r="51">
-      <c r="B51" s="27"/>
+      <c r="B51" s="28"/>
     </row>
     <row r="52">
-      <c r="B52" s="27"/>
+      <c r="B52" s="28"/>
     </row>
     <row r="53">
-      <c r="B53" s="27"/>
+      <c r="B53" s="28"/>
     </row>
     <row r="54">
-      <c r="B54" s="27"/>
+      <c r="B54" s="28"/>
     </row>
     <row r="55">
-      <c r="B55" s="27"/>
+      <c r="B55" s="28"/>
     </row>
     <row r="56">
-      <c r="B56" s="27"/>
+      <c r="B56" s="28"/>
     </row>
     <row r="57">
-      <c r="B57" s="27"/>
+      <c r="B57" s="28"/>
     </row>
     <row r="58">
-      <c r="B58" s="27"/>
+      <c r="B58" s="28"/>
     </row>
     <row r="59">
-      <c r="B59" s="27"/>
+      <c r="B59" s="28"/>
     </row>
     <row r="60">
-      <c r="B60" s="27"/>
+      <c r="B60" s="28"/>
     </row>
     <row r="61">
-      <c r="B61" s="27"/>
+      <c r="B61" s="28"/>
     </row>
     <row r="62">
-      <c r="B62" s="27"/>
+      <c r="B62" s="28"/>
     </row>
     <row r="63">
-      <c r="B63" s="27"/>
+      <c r="B63" s="28"/>
     </row>
     <row r="64">
-      <c r="B64" s="27"/>
+      <c r="B64" s="28"/>
     </row>
     <row r="65">
-      <c r="B65" s="27"/>
+      <c r="B65" s="28"/>
     </row>
     <row r="66">
-      <c r="B66" s="27"/>
+      <c r="B66" s="28"/>
     </row>
     <row r="67">
-      <c r="B67" s="27"/>
+      <c r="B67" s="28"/>
     </row>
     <row r="68">
-      <c r="B68" s="27"/>
+      <c r="B68" s="28"/>
     </row>
     <row r="69">
-      <c r="B69" s="27"/>
+      <c r="B69" s="28"/>
     </row>
     <row r="70">
-      <c r="B70" s="27"/>
+      <c r="B70" s="28"/>
     </row>
     <row r="71">
-      <c r="B71" s="27"/>
+      <c r="B71" s="28"/>
     </row>
     <row r="72">
-      <c r="B72" s="27"/>
+      <c r="B72" s="28"/>
     </row>
     <row r="73">
-      <c r="B73" s="27"/>
+      <c r="B73" s="28"/>
     </row>
     <row r="74">
-      <c r="B74" s="27"/>
+      <c r="B74" s="28"/>
     </row>
     <row r="75">
-      <c r="B75" s="27"/>
+      <c r="B75" s="28"/>
     </row>
     <row r="76">
-      <c r="B76" s="27"/>
+      <c r="B76" s="28"/>
     </row>
     <row r="77">
-      <c r="B77" s="27"/>
+      <c r="B77" s="28"/>
     </row>
     <row r="78">
-      <c r="B78" s="27"/>
+      <c r="B78" s="28"/>
     </row>
     <row r="79">
-      <c r="B79" s="27"/>
+      <c r="B79" s="28"/>
     </row>
     <row r="80">
-      <c r="B80" s="27"/>
+      <c r="B80" s="28"/>
     </row>
     <row r="81">
-      <c r="B81" s="27"/>
+      <c r="B81" s="28"/>
     </row>
     <row r="82">
-      <c r="B82" s="27"/>
+      <c r="B82" s="28"/>
     </row>
     <row r="83">
-      <c r="B83" s="27"/>
+      <c r="B83" s="28"/>
     </row>
     <row r="84">
-      <c r="B84" s="27"/>
+      <c r="B84" s="28"/>
     </row>
     <row r="85">
-      <c r="B85" s="27"/>
+      <c r="B85" s="28"/>
     </row>
     <row r="86">
-      <c r="B86" s="27"/>
+      <c r="B86" s="28"/>
     </row>
     <row r="87">
-      <c r="B87" s="27"/>
+      <c r="B87" s="28"/>
     </row>
     <row r="88">
-      <c r="B88" s="27"/>
+      <c r="B88" s="28"/>
     </row>
     <row r="89">
-      <c r="B89" s="27"/>
+      <c r="B89" s="28"/>
     </row>
     <row r="90">
-      <c r="B90" s="27"/>
+      <c r="B90" s="28"/>
     </row>
     <row r="91">
-      <c r="B91" s="27"/>
+      <c r="B91" s="28"/>
     </row>
     <row r="92">
-      <c r="B92" s="27"/>
+      <c r="B92" s="28"/>
     </row>
     <row r="93">
-      <c r="B93" s="27"/>
+      <c r="B93" s="28"/>
     </row>
     <row r="94">
-      <c r="B94" s="27"/>
+      <c r="B94" s="28"/>
     </row>
     <row r="95">
-      <c r="B95" s="27"/>
+      <c r="B95" s="28"/>
     </row>
     <row r="96">
-      <c r="B96" s="27"/>
+      <c r="B96" s="28"/>
     </row>
     <row r="97">
-      <c r="B97" s="27"/>
+      <c r="B97" s="28"/>
     </row>
     <row r="98">
-      <c r="B98" s="27"/>
+      <c r="B98" s="28"/>
     </row>
     <row r="99">
-      <c r="B99" s="27"/>
+      <c r="B99" s="28"/>
     </row>
     <row r="100">
-      <c r="B100" s="27"/>
+      <c r="B100" s="28"/>
     </row>
     <row r="101">
-      <c r="B101" s="27"/>
+      <c r="B101" s="28"/>
     </row>
     <row r="102">
-      <c r="B102" s="27"/>
+      <c r="B102" s="28"/>
     </row>
     <row r="103">
-      <c r="B103" s="27"/>
+      <c r="B103" s="28"/>
     </row>
     <row r="104">
-      <c r="B104" s="27"/>
+      <c r="B104" s="28"/>
     </row>
     <row r="105">
-      <c r="B105" s="27"/>
+      <c r="B105" s="28"/>
     </row>
     <row r="106">
-      <c r="B106" s="27"/>
+      <c r="B106" s="28"/>
     </row>
     <row r="107">
-      <c r="B107" s="27"/>
+      <c r="B107" s="28"/>
     </row>
     <row r="108">
-      <c r="B108" s="27"/>
+      <c r="B108" s="28"/>
     </row>
     <row r="109">
-      <c r="B109" s="27"/>
+      <c r="B109" s="28"/>
     </row>
     <row r="110">
-      <c r="B110" s="27"/>
+      <c r="B110" s="28"/>
     </row>
     <row r="111">
-      <c r="B111" s="27"/>
+      <c r="B111" s="28"/>
     </row>
     <row r="112">
-      <c r="B112" s="27"/>
+      <c r="B112" s="28"/>
     </row>
     <row r="113">
-      <c r="B113" s="27"/>
+      <c r="B113" s="28"/>
     </row>
     <row r="114">
-      <c r="B114" s="27"/>
+      <c r="B114" s="28"/>
     </row>
     <row r="115">
-      <c r="B115" s="27"/>
+      <c r="B115" s="28"/>
     </row>
     <row r="116">
-      <c r="B116" s="27"/>
+      <c r="B116" s="28"/>
     </row>
     <row r="117">
-      <c r="B117" s="27"/>
+      <c r="B117" s="28"/>
     </row>
     <row r="118">
-      <c r="B118" s="27"/>
+      <c r="B118" s="28"/>
     </row>
     <row r="119">
-      <c r="B119" s="27"/>
+      <c r="B119" s="28"/>
     </row>
     <row r="120">
-      <c r="B120" s="27"/>
+      <c r="B120" s="28"/>
     </row>
     <row r="121">
-      <c r="B121" s="27"/>
+      <c r="B121" s="28"/>
     </row>
     <row r="122">
-      <c r="B122" s="27"/>
+      <c r="B122" s="28"/>
     </row>
     <row r="123">
-      <c r="B123" s="27"/>
+      <c r="B123" s="28"/>
     </row>
     <row r="124">
-      <c r="B124" s="27"/>
+      <c r="B124" s="28"/>
     </row>
     <row r="125">
-      <c r="B125" s="27"/>
+      <c r="B125" s="28"/>
     </row>
     <row r="126">
-      <c r="B126" s="27"/>
+      <c r="B126" s="28"/>
     </row>
     <row r="127">
-      <c r="B127" s="27"/>
+      <c r="B127" s="28"/>
     </row>
     <row r="128">
-      <c r="B128" s="27"/>
+      <c r="B128" s="28"/>
     </row>
     <row r="129">
-      <c r="B129" s="27"/>
+      <c r="B129" s="28"/>
     </row>
     <row r="130">
-      <c r="B130" s="27"/>
+      <c r="B130" s="28"/>
     </row>
     <row r="131">
-      <c r="B131" s="27"/>
+      <c r="B131" s="28"/>
     </row>
     <row r="132">
-      <c r="B132" s="27"/>
+      <c r="B132" s="28"/>
     </row>
     <row r="133">
-      <c r="B133" s="27"/>
+      <c r="B133" s="28"/>
     </row>
     <row r="134">
-      <c r="B134" s="27"/>
+      <c r="B134" s="28"/>
     </row>
     <row r="135">
-      <c r="B135" s="27"/>
+      <c r="B135" s="28"/>
     </row>
     <row r="136">
-      <c r="B136" s="27"/>
+      <c r="B136" s="28"/>
     </row>
     <row r="137">
-      <c r="B137" s="27"/>
+      <c r="B137" s="28"/>
     </row>
     <row r="138">
-      <c r="B138" s="27"/>
+      <c r="B138" s="28"/>
     </row>
     <row r="139">
-      <c r="B139" s="27"/>
+      <c r="B139" s="28"/>
     </row>
     <row r="140">
-      <c r="B140" s="27"/>
+      <c r="B140" s="28"/>
     </row>
     <row r="141">
-      <c r="B141" s="27"/>
+      <c r="B141" s="28"/>
     </row>
     <row r="142">
-      <c r="B142" s="27"/>
+      <c r="B142" s="28"/>
     </row>
     <row r="143">
-      <c r="B143" s="27"/>
+      <c r="B143" s="28"/>
     </row>
     <row r="144">
-      <c r="B144" s="27"/>
+      <c r="B144" s="28"/>
     </row>
     <row r="145">
-      <c r="B145" s="27"/>
+      <c r="B145" s="28"/>
     </row>
     <row r="146">
-      <c r="B146" s="27"/>
+      <c r="B146" s="28"/>
     </row>
     <row r="147">
-      <c r="B147" s="27"/>
+      <c r="B147" s="28"/>
     </row>
     <row r="148">
-      <c r="B148" s="27"/>
+      <c r="B148" s="28"/>
     </row>
     <row r="149">
-      <c r="B149" s="27"/>
+      <c r="B149" s="28"/>
     </row>
     <row r="150">
-      <c r="B150" s="27"/>
+      <c r="B150" s="28"/>
     </row>
     <row r="151">
-      <c r="B151" s="27"/>
+      <c r="B151" s="28"/>
     </row>
     <row r="152">
-      <c r="B152" s="27"/>
+      <c r="B152" s="28"/>
     </row>
     <row r="153">
-      <c r="B153" s="27"/>
+      <c r="B153" s="28"/>
     </row>
     <row r="154">
-      <c r="B154" s="27"/>
+      <c r="B154" s="28"/>
     </row>
     <row r="155">
-      <c r="B155" s="27"/>
+      <c r="B155" s="28"/>
     </row>
     <row r="156">
-      <c r="B156" s="27"/>
+      <c r="B156" s="28"/>
     </row>
     <row r="157">
-      <c r="B157" s="27"/>
+      <c r="B157" s="28"/>
     </row>
     <row r="158">
-      <c r="B158" s="27"/>
+      <c r="B158" s="28"/>
     </row>
     <row r="159">
-      <c r="B159" s="27"/>
+      <c r="B159" s="28"/>
     </row>
     <row r="160">
-      <c r="B160" s="27"/>
+      <c r="B160" s="28"/>
     </row>
     <row r="161">
-      <c r="B161" s="27"/>
+      <c r="B161" s="28"/>
     </row>
     <row r="162">
-      <c r="B162" s="27"/>
+      <c r="B162" s="28"/>
     </row>
     <row r="163">
-      <c r="B163" s="27"/>
+      <c r="B163" s="28"/>
     </row>
     <row r="164">
-      <c r="B164" s="27"/>
+      <c r="B164" s="28"/>
     </row>
     <row r="165">
-      <c r="B165" s="27"/>
+      <c r="B165" s="28"/>
     </row>
     <row r="166">
-      <c r="B166" s="27"/>
+      <c r="B166" s="28"/>
     </row>
     <row r="167">
-      <c r="B167" s="27"/>
+      <c r="B167" s="28"/>
     </row>
     <row r="168">
-      <c r="B168" s="27"/>
+      <c r="B168" s="28"/>
     </row>
     <row r="169">
-      <c r="B169" s="27"/>
+      <c r="B169" s="28"/>
     </row>
     <row r="170">
-      <c r="B170" s="27"/>
+      <c r="B170" s="28"/>
     </row>
     <row r="171">
-      <c r="B171" s="27"/>
+      <c r="B171" s="28"/>
     </row>
     <row r="172">
-      <c r="B172" s="27"/>
+      <c r="B172" s="28"/>
     </row>
     <row r="173">
-      <c r="B173" s="27"/>
+      <c r="B173" s="28"/>
     </row>
     <row r="174">
-      <c r="B174" s="27"/>
+      <c r="B174" s="28"/>
     </row>
     <row r="175">
-      <c r="B175" s="27"/>
+      <c r="B175" s="28"/>
     </row>
     <row r="176">
-      <c r="B176" s="27"/>
+      <c r="B176" s="28"/>
     </row>
     <row r="177">
-      <c r="B177" s="27"/>
+      <c r="B177" s="28"/>
     </row>
     <row r="178">
-      <c r="B178" s="27"/>
+      <c r="B178" s="28"/>
     </row>
     <row r="179">
-      <c r="B179" s="27"/>
+      <c r="B179" s="28"/>
     </row>
     <row r="180">
-      <c r="B180" s="27"/>
+      <c r="B180" s="28"/>
     </row>
     <row r="181">
-      <c r="B181" s="27"/>
+      <c r="B181" s="28"/>
     </row>
     <row r="182">
-      <c r="B182" s="27"/>
+      <c r="B182" s="28"/>
     </row>
     <row r="183">
-      <c r="B183" s="27"/>
+      <c r="B183" s="28"/>
     </row>
     <row r="184">
-      <c r="B184" s="27"/>
+      <c r="B184" s="28"/>
     </row>
     <row r="185">
-      <c r="B185" s="27"/>
+      <c r="B185" s="28"/>
     </row>
     <row r="186">
-      <c r="B186" s="27"/>
+      <c r="B186" s="28"/>
     </row>
     <row r="187">
-      <c r="B187" s="27"/>
+      <c r="B187" s="28"/>
     </row>
     <row r="188">
-      <c r="B188" s="27"/>
+      <c r="B188" s="28"/>
     </row>
     <row r="189">
-      <c r="B189" s="27"/>
+      <c r="B189" s="28"/>
     </row>
     <row r="190">
-      <c r="B190" s="27"/>
+      <c r="B190" s="28"/>
     </row>
     <row r="191">
-      <c r="B191" s="27"/>
+      <c r="B191" s="28"/>
     </row>
     <row r="192">
-      <c r="B192" s="27"/>
+      <c r="B192" s="28"/>
     </row>
     <row r="193">
-      <c r="B193" s="27"/>
+      <c r="B193" s="28"/>
     </row>
     <row r="194">
-      <c r="B194" s="27"/>
+      <c r="B194" s="28"/>
     </row>
     <row r="195">
-      <c r="B195" s="27"/>
+      <c r="B195" s="28"/>
     </row>
     <row r="196">
-      <c r="B196" s="27"/>
+      <c r="B196" s="28"/>
     </row>
     <row r="197">
-      <c r="B197" s="27"/>
+      <c r="B197" s="28"/>
     </row>
     <row r="198">
-      <c r="B198" s="27"/>
+      <c r="B198" s="28"/>
     </row>
     <row r="199">
-      <c r="B199" s="27"/>
+      <c r="B199" s="28"/>
     </row>
     <row r="200">
-      <c r="B200" s="27"/>
+      <c r="B200" s="28"/>
     </row>
     <row r="201">
-      <c r="B201" s="27"/>
+      <c r="B201" s="28"/>
     </row>
     <row r="202">
-      <c r="B202" s="27"/>
+      <c r="B202" s="28"/>
     </row>
     <row r="203">
-      <c r="B203" s="27"/>
+      <c r="B203" s="28"/>
     </row>
     <row r="204">
-      <c r="B204" s="27"/>
+      <c r="B204" s="28"/>
     </row>
     <row r="205">
-      <c r="B205" s="27"/>
+      <c r="B205" s="28"/>
     </row>
     <row r="206">
-      <c r="B206" s="27"/>
+      <c r="B206" s="28"/>
     </row>
     <row r="207">
-      <c r="B207" s="27"/>
+      <c r="B207" s="28"/>
     </row>
     <row r="208">
-      <c r="B208" s="27"/>
+      <c r="B208" s="28"/>
     </row>
     <row r="209">
-      <c r="B209" s="27"/>
+      <c r="B209" s="28"/>
     </row>
     <row r="210">
-      <c r="B210" s="27"/>
+      <c r="B210" s="28"/>
     </row>
     <row r="211">
-      <c r="B211" s="27"/>
+      <c r="B211" s="28"/>
     </row>
     <row r="212">
-      <c r="B212" s="27"/>
+      <c r="B212" s="28"/>
     </row>
     <row r="213">
-      <c r="B213" s="27"/>
+      <c r="B213" s="28"/>
     </row>
     <row r="214">
-      <c r="B214" s="27"/>
+      <c r="B214" s="28"/>
     </row>
     <row r="215">
-      <c r="B215" s="27"/>
+      <c r="B215" s="28"/>
     </row>
     <row r="216">
-      <c r="B216" s="27"/>
+      <c r="B216" s="28"/>
     </row>
     <row r="217">
-      <c r="B217" s="27"/>
+      <c r="B217" s="28"/>
     </row>
     <row r="218">
-      <c r="B218" s="27"/>
+      <c r="B218" s="28"/>
     </row>
     <row r="219">
-      <c r="B219" s="27"/>
+      <c r="B219" s="28"/>
     </row>
     <row r="220">
-      <c r="B220" s="27"/>
+      <c r="B220" s="28"/>
     </row>
     <row r="221">
-      <c r="B221" s="27"/>
+      <c r="B221" s="28"/>
     </row>
     <row r="222">
-      <c r="B222" s="27"/>
+      <c r="B222" s="28"/>
     </row>
     <row r="223">
-      <c r="B223" s="27"/>
+      <c r="B223" s="28"/>
     </row>
     <row r="224">
-      <c r="B224" s="27"/>
+      <c r="B224" s="28"/>
     </row>
     <row r="225">
-      <c r="B225" s="27"/>
+      <c r="B225" s="28"/>
     </row>
     <row r="226">
-      <c r="B226" s="27"/>
+      <c r="B226" s="28"/>
     </row>
     <row r="227">
-      <c r="B227" s="27"/>
+      <c r="B227" s="28"/>
     </row>
     <row r="228">
-      <c r="B228" s="27"/>
+      <c r="B228" s="28"/>
     </row>
     <row r="229">
-      <c r="B229" s="27"/>
+      <c r="B229" s="28"/>
     </row>
     <row r="230">
-      <c r="B230" s="27"/>
+      <c r="B230" s="28"/>
     </row>
     <row r="231">
-      <c r="B231" s="27"/>
+      <c r="B231" s="28"/>
     </row>
     <row r="232">
-      <c r="B232" s="27"/>
+      <c r="B232" s="28"/>
     </row>
     <row r="233">
-      <c r="B233" s="27"/>
+      <c r="B233" s="28"/>
     </row>
     <row r="234">
-      <c r="B234" s="27"/>
+      <c r="B234" s="28"/>
     </row>
     <row r="235">
-      <c r="B235" s="27"/>
+      <c r="B235" s="28"/>
     </row>
     <row r="236">
-      <c r="B236" s="27"/>
+      <c r="B236" s="28"/>
     </row>
     <row r="237">
-      <c r="B237" s="27"/>
+      <c r="B237" s="28"/>
     </row>
     <row r="238">
-      <c r="B238" s="27"/>
+      <c r="B238" s="28"/>
     </row>
     <row r="239">
-      <c r="B239" s="27"/>
+      <c r="B239" s="28"/>
     </row>
     <row r="240">
-      <c r="B240" s="27"/>
+      <c r="B240" s="28"/>
     </row>
     <row r="241">
-      <c r="B241" s="27"/>
+      <c r="B241" s="28"/>
     </row>
     <row r="242">
-      <c r="B242" s="27"/>
+      <c r="B242" s="28"/>
     </row>
     <row r="243">
-      <c r="B243" s="27"/>
+      <c r="B243" s="28"/>
     </row>
     <row r="244">
-      <c r="B244" s="27"/>
+      <c r="B244" s="28"/>
     </row>
     <row r="245">
-      <c r="B245" s="27"/>
+      <c r="B245" s="28"/>
     </row>
     <row r="246">
-      <c r="B246" s="27"/>
+      <c r="B246" s="28"/>
     </row>
     <row r="247">
-      <c r="B247" s="27"/>
+      <c r="B247" s="28"/>
     </row>
     <row r="248">
-      <c r="B248" s="27"/>
+      <c r="B248" s="28"/>
     </row>
     <row r="249">
-      <c r="B249" s="27"/>
+      <c r="B249" s="28"/>
     </row>
     <row r="250">
-      <c r="B250" s="27"/>
+      <c r="B250" s="28"/>
     </row>
     <row r="251">
-      <c r="B251" s="27"/>
+      <c r="B251" s="28"/>
     </row>
     <row r="252">
-      <c r="B252" s="27"/>
+      <c r="B252" s="28"/>
     </row>
     <row r="253">
-      <c r="B253" s="27"/>
+      <c r="B253" s="28"/>
     </row>
     <row r="254">
-      <c r="B254" s="27"/>
+      <c r="B254" s="28"/>
     </row>
     <row r="255">
-      <c r="B255" s="27"/>
+      <c r="B255" s="28"/>
     </row>
     <row r="256">
-      <c r="B256" s="27"/>
+      <c r="B256" s="28"/>
     </row>
     <row r="257">
-      <c r="B257" s="27"/>
+      <c r="B257" s="28"/>
     </row>
     <row r="258">
-      <c r="B258" s="27"/>
+      <c r="B258" s="28"/>
     </row>
     <row r="259">
-      <c r="B259" s="27"/>
+      <c r="B259" s="28"/>
     </row>
     <row r="260">
-      <c r="B260" s="27"/>
+      <c r="B260" s="28"/>
     </row>
     <row r="261">
-      <c r="B261" s="27"/>
+      <c r="B261" s="28"/>
     </row>
     <row r="262">
-      <c r="B262" s="27"/>
+      <c r="B262" s="28"/>
     </row>
     <row r="263">
-      <c r="B263" s="27"/>
+      <c r="B263" s="28"/>
     </row>
     <row r="264">
-      <c r="B264" s="27"/>
+      <c r="B264" s="28"/>
     </row>
     <row r="265">
-      <c r="B265" s="27"/>
+      <c r="B265" s="28"/>
     </row>
     <row r="266">
-      <c r="B266" s="27"/>
+      <c r="B266" s="28"/>
     </row>
     <row r="267">
-      <c r="B267" s="27"/>
+      <c r="B267" s="28"/>
     </row>
     <row r="268">
-      <c r="B268" s="27"/>
+      <c r="B268" s="28"/>
     </row>
     <row r="269">
-      <c r="B269" s="27"/>
+      <c r="B269" s="28"/>
     </row>
     <row r="270">
-      <c r="B270" s="27"/>
+      <c r="B270" s="28"/>
     </row>
     <row r="271">
-      <c r="B271" s="27"/>
+      <c r="B271" s="28"/>
     </row>
     <row r="272">
-      <c r="B272" s="27"/>
+      <c r="B272" s="28"/>
     </row>
     <row r="273">
-      <c r="B273" s="27"/>
+      <c r="B273" s="28"/>
     </row>
     <row r="274">
-      <c r="B274" s="27"/>
+      <c r="B274" s="28"/>
     </row>
     <row r="275">
-      <c r="B275" s="27"/>
+      <c r="B275" s="28"/>
     </row>
     <row r="276">
-      <c r="B276" s="27"/>
+      <c r="B276" s="28"/>
     </row>
     <row r="277">
-      <c r="B277" s="27"/>
+      <c r="B277" s="28"/>
     </row>
     <row r="278">
-      <c r="B278" s="27"/>
+      <c r="B278" s="28"/>
     </row>
     <row r="279">
-      <c r="B279" s="27"/>
+      <c r="B279" s="28"/>
     </row>
     <row r="280">
-      <c r="B280" s="27"/>
+      <c r="B280" s="28"/>
     </row>
     <row r="281">
-      <c r="B281" s="27"/>
+      <c r="B281" s="28"/>
     </row>
     <row r="282">
-      <c r="B282" s="27"/>
+      <c r="B282" s="28"/>
     </row>
     <row r="283">
-      <c r="B283" s="27"/>
+      <c r="B283" s="28"/>
     </row>
     <row r="284">
-      <c r="B284" s="27"/>
+      <c r="B284" s="28"/>
     </row>
     <row r="285">
-      <c r="B285" s="27"/>
+      <c r="B285" s="28"/>
     </row>
     <row r="286">
-      <c r="B286" s="27"/>
+      <c r="B286" s="28"/>
     </row>
     <row r="287">
-      <c r="B287" s="27"/>
+      <c r="B287" s="28"/>
     </row>
     <row r="288">
-      <c r="B288" s="27"/>
+      <c r="B288" s="28"/>
     </row>
     <row r="289">
-      <c r="B289" s="27"/>
+      <c r="B289" s="28"/>
     </row>
     <row r="290">
-      <c r="B290" s="27"/>
+      <c r="B290" s="28"/>
     </row>
     <row r="291">
-      <c r="B291" s="27"/>
+      <c r="B291" s="28"/>
     </row>
     <row r="292">
-      <c r="B292" s="27"/>
+      <c r="B292" s="28"/>
     </row>
     <row r="293">
-      <c r="B293" s="27"/>
+      <c r="B293" s="28"/>
     </row>
     <row r="294">
-      <c r="B294" s="27"/>
+      <c r="B294" s="28"/>
     </row>
     <row r="295">
-      <c r="B295" s="27"/>
+      <c r="B295" s="28"/>
     </row>
     <row r="296">
-      <c r="B296" s="27"/>
+      <c r="B296" s="28"/>
     </row>
     <row r="297">
-      <c r="B297" s="27"/>
+      <c r="B297" s="28"/>
     </row>
     <row r="298">
-      <c r="B298" s="27"/>
+      <c r="B298" s="28"/>
     </row>
     <row r="299">
-      <c r="B299" s="27"/>
+      <c r="B299" s="28"/>
     </row>
     <row r="300">
-      <c r="B300" s="27"/>
+      <c r="B300" s="28"/>
     </row>
     <row r="301">
-      <c r="B301" s="27"/>
+      <c r="B301" s="28"/>
     </row>
     <row r="302">
-      <c r="B302" s="27"/>
+      <c r="B302" s="28"/>
     </row>
     <row r="303">
-      <c r="B303" s="27"/>
+      <c r="B303" s="28"/>
     </row>
     <row r="304">
-      <c r="B304" s="27"/>
+      <c r="B304" s="28"/>
     </row>
     <row r="305">
-      <c r="B305" s="27"/>
+      <c r="B305" s="28"/>
     </row>
     <row r="306">
-      <c r="B306" s="27"/>
+      <c r="B306" s="28"/>
     </row>
     <row r="307">
-      <c r="B307" s="27"/>
+      <c r="B307" s="28"/>
     </row>
     <row r="308">
-      <c r="B308" s="27"/>
+      <c r="B308" s="28"/>
     </row>
     <row r="309">
-      <c r="B309" s="27"/>
+      <c r="B309" s="28"/>
     </row>
     <row r="310">
-      <c r="B310" s="27"/>
+      <c r="B310" s="28"/>
     </row>
     <row r="311">
-      <c r="B311" s="27"/>
+      <c r="B311" s="28"/>
     </row>
     <row r="312">
-      <c r="B312" s="27"/>
+      <c r="B312" s="28"/>
     </row>
     <row r="313">
-      <c r="B313" s="27"/>
+      <c r="B313" s="28"/>
     </row>
     <row r="314">
-      <c r="B314" s="27"/>
+      <c r="B314" s="28"/>
     </row>
     <row r="315">
-      <c r="B315" s="27"/>
+      <c r="B315" s="28"/>
     </row>
     <row r="316">
-      <c r="B316" s="27"/>
+      <c r="B316" s="28"/>
     </row>
     <row r="317">
-      <c r="B317" s="27"/>
+      <c r="B317" s="28"/>
     </row>
     <row r="318">
-      <c r="B318" s="27"/>
+      <c r="B318" s="28"/>
     </row>
     <row r="319">
-      <c r="B319" s="27"/>
+      <c r="B319" s="28"/>
     </row>
     <row r="320">
-      <c r="B320" s="27"/>
+      <c r="B320" s="28"/>
     </row>
     <row r="321">
-      <c r="B321" s="27"/>
+      <c r="B321" s="28"/>
     </row>
     <row r="322">
-      <c r="B322" s="27"/>
+      <c r="B322" s="28"/>
     </row>
     <row r="323">
-      <c r="B323" s="27"/>
+      <c r="B323" s="28"/>
     </row>
     <row r="324">
-      <c r="B324" s="27"/>
+      <c r="B324" s="28"/>
     </row>
     <row r="325">
-      <c r="B325" s="27"/>
+      <c r="B325" s="28"/>
     </row>
     <row r="326">
-      <c r="B326" s="27"/>
+      <c r="B326" s="28"/>
     </row>
     <row r="327">
-      <c r="B327" s="27"/>
+      <c r="B327" s="28"/>
     </row>
     <row r="328">
-      <c r="B328" s="27"/>
+      <c r="B328" s="28"/>
     </row>
     <row r="329">
-      <c r="B329" s="27"/>
+      <c r="B329" s="28"/>
     </row>
     <row r="330">
-      <c r="B330" s="27"/>
+      <c r="B330" s="28"/>
     </row>
     <row r="331">
-      <c r="B331" s="27"/>
+      <c r="B331" s="28"/>
     </row>
     <row r="332">
-      <c r="B332" s="27"/>
+      <c r="B332" s="28"/>
     </row>
     <row r="333">
-      <c r="B333" s="27"/>
+      <c r="B333" s="28"/>
     </row>
     <row r="334">
-      <c r="B334" s="27"/>
+      <c r="B334" s="28"/>
     </row>
     <row r="335">
-      <c r="B335" s="27"/>
+      <c r="B335" s="28"/>
     </row>
     <row r="336">
-      <c r="B336" s="27"/>
+      <c r="B336" s="28"/>
     </row>
     <row r="337">
-      <c r="B337" s="27"/>
+      <c r="B337" s="28"/>
     </row>
     <row r="338">
-      <c r="B338" s="27"/>
+      <c r="B338" s="28"/>
     </row>
     <row r="339">
-      <c r="B339" s="27"/>
+      <c r="B339" s="28"/>
     </row>
     <row r="340">
-      <c r="B340" s="27"/>
+      <c r="B340" s="28"/>
     </row>
     <row r="341">
-      <c r="B341" s="27"/>
+      <c r="B341" s="28"/>
     </row>
     <row r="342">
-      <c r="B342" s="27"/>
+      <c r="B342" s="28"/>
     </row>
     <row r="343">
-      <c r="B343" s="27"/>
+      <c r="B343" s="28"/>
     </row>
     <row r="344">
-      <c r="B344" s="27"/>
+      <c r="B344" s="28"/>
     </row>
     <row r="345">
-      <c r="B345" s="27"/>
+      <c r="B345" s="28"/>
     </row>
     <row r="346">
-      <c r="B346" s="27"/>
+      <c r="B346" s="28"/>
     </row>
     <row r="347">
-      <c r="B347" s="27"/>
+      <c r="B347" s="28"/>
     </row>
     <row r="348">
-      <c r="B348" s="27"/>
+      <c r="B348" s="28"/>
     </row>
     <row r="349">
-      <c r="B349" s="27"/>
+      <c r="B349" s="28"/>
     </row>
     <row r="350">
-      <c r="B350" s="27"/>
+      <c r="B350" s="28"/>
     </row>
     <row r="351">
-      <c r="B351" s="27"/>
+      <c r="B351" s="28"/>
     </row>
     <row r="352">
-      <c r="B352" s="27"/>
+      <c r="B352" s="28"/>
     </row>
     <row r="353">
-      <c r="B353" s="27"/>
+      <c r="B353" s="28"/>
     </row>
     <row r="354">
-      <c r="B354" s="27"/>
+      <c r="B354" s="28"/>
     </row>
     <row r="355">
-      <c r="B355" s="27"/>
+      <c r="B355" s="28"/>
     </row>
     <row r="356">
-      <c r="B356" s="27"/>
+      <c r="B356" s="28"/>
     </row>
     <row r="357">
-      <c r="B357" s="27"/>
+      <c r="B357" s="28"/>
     </row>
     <row r="358">
-      <c r="B358" s="27"/>
+      <c r="B358" s="28"/>
     </row>
     <row r="359">
-      <c r="B359" s="27"/>
+      <c r="B359" s="28"/>
     </row>
     <row r="360">
-      <c r="B360" s="27"/>
+      <c r="B360" s="28"/>
     </row>
     <row r="361">
-      <c r="B361" s="27"/>
+      <c r="B361" s="28"/>
     </row>
     <row r="362">
-      <c r="B362" s="27"/>
+      <c r="B362" s="28"/>
     </row>
     <row r="363">
-      <c r="B363" s="27"/>
+      <c r="B363" s="28"/>
     </row>
     <row r="364">
-      <c r="B364" s="27"/>
+      <c r="B364" s="28"/>
     </row>
     <row r="365">
-      <c r="B365" s="27"/>
+      <c r="B365" s="28"/>
     </row>
     <row r="366">
-      <c r="B366" s="27"/>
+      <c r="B366" s="28"/>
     </row>
     <row r="367">
-      <c r="B367" s="27"/>
+      <c r="B367" s="28"/>
     </row>
     <row r="368">
-      <c r="B368" s="27"/>
+      <c r="B368" s="28"/>
     </row>
     <row r="369">
-      <c r="B369" s="27"/>
+      <c r="B369" s="28"/>
     </row>
     <row r="370">
-      <c r="B370" s="27"/>
+      <c r="B370" s="28"/>
     </row>
     <row r="371">
-      <c r="B371" s="27"/>
+      <c r="B371" s="28"/>
     </row>
     <row r="372">
-      <c r="B372" s="27"/>
+      <c r="B372" s="28"/>
     </row>
     <row r="373">
-      <c r="B373" s="27"/>
+      <c r="B373" s="28"/>
     </row>
     <row r="374">
-      <c r="B374" s="27"/>
+      <c r="B374" s="28"/>
     </row>
     <row r="375">
-      <c r="B375" s="27"/>
+      <c r="B375" s="28"/>
     </row>
     <row r="376">
-      <c r="B376" s="27"/>
+      <c r="B376" s="28"/>
     </row>
     <row r="377">
-      <c r="B377" s="27"/>
+      <c r="B377" s="28"/>
     </row>
     <row r="378">
-      <c r="B378" s="27"/>
+      <c r="B378" s="28"/>
     </row>
     <row r="379">
-      <c r="B379" s="27"/>
+      <c r="B379" s="28"/>
     </row>
     <row r="380">
-      <c r="B380" s="27"/>
+      <c r="B380" s="28"/>
     </row>
     <row r="381">
-      <c r="B381" s="27"/>
+      <c r="B381" s="28"/>
     </row>
     <row r="382">
-      <c r="B382" s="27"/>
+      <c r="B382" s="28"/>
     </row>
     <row r="383">
-      <c r="B383" s="27"/>
+      <c r="B383" s="28"/>
     </row>
     <row r="384">
-      <c r="B384" s="27"/>
+      <c r="B384" s="28"/>
     </row>
     <row r="385">
-      <c r="B385" s="27"/>
+      <c r="B385" s="28"/>
     </row>
     <row r="386">
-      <c r="B386" s="27"/>
+      <c r="B386" s="28"/>
     </row>
     <row r="387">
-      <c r="B387" s="27"/>
+      <c r="B387" s="28"/>
     </row>
     <row r="388">
-      <c r="B388" s="27"/>
+      <c r="B388" s="28"/>
     </row>
     <row r="389">
-      <c r="B389" s="27"/>
+      <c r="B389" s="28"/>
     </row>
     <row r="390">
-      <c r="B390" s="27"/>
+      <c r="B390" s="28"/>
     </row>
     <row r="391">
-      <c r="B391" s="27"/>
+      <c r="B391" s="28"/>
     </row>
     <row r="392">
-      <c r="B392" s="27"/>
+      <c r="B392" s="28"/>
     </row>
     <row r="393">
-      <c r="B393" s="27"/>
+      <c r="B393" s="28"/>
     </row>
     <row r="394">
-      <c r="B394" s="27"/>
+      <c r="B394" s="28"/>
     </row>
     <row r="395">
-      <c r="B395" s="27"/>
+      <c r="B395" s="28"/>
     </row>
     <row r="396">
-      <c r="B396" s="27"/>
+      <c r="B396" s="28"/>
     </row>
     <row r="397">
-      <c r="B397" s="27"/>
+      <c r="B397" s="28"/>
     </row>
     <row r="398">
-      <c r="B398" s="27"/>
+      <c r="B398" s="28"/>
     </row>
     <row r="399">
-      <c r="B399" s="27"/>
+      <c r="B399" s="28"/>
     </row>
     <row r="400">
-      <c r="B400" s="27"/>
+      <c r="B400" s="28"/>
     </row>
     <row r="401">
-      <c r="B401" s="27"/>
+      <c r="B401" s="28"/>
     </row>
     <row r="402">
-      <c r="B402" s="27"/>
+      <c r="B402" s="28"/>
     </row>
     <row r="403">
-      <c r="B403" s="27"/>
+      <c r="B403" s="28"/>
     </row>
     <row r="404">
-      <c r="B404" s="27"/>
+      <c r="B404" s="28"/>
     </row>
     <row r="405">
-      <c r="B405" s="27"/>
+      <c r="B405" s="28"/>
     </row>
     <row r="406">
-      <c r="B406" s="27"/>
+      <c r="B406" s="28"/>
     </row>
     <row r="407">
-      <c r="B407" s="27"/>
+      <c r="B407" s="28"/>
     </row>
     <row r="408">
-      <c r="B408" s="27"/>
+      <c r="B408" s="28"/>
     </row>
     <row r="409">
-      <c r="B409" s="27"/>
+      <c r="B409" s="28"/>
     </row>
     <row r="410">
-      <c r="B410" s="27"/>
+      <c r="B410" s="28"/>
     </row>
     <row r="411">
-      <c r="B411" s="27"/>
+      <c r="B411" s="28"/>
     </row>
     <row r="412">
-      <c r="B412" s="27"/>
+      <c r="B412" s="28"/>
     </row>
     <row r="413">
-      <c r="B413" s="27"/>
+      <c r="B413" s="28"/>
     </row>
     <row r="414">
-      <c r="B414" s="27"/>
+      <c r="B414" s="28"/>
     </row>
     <row r="415">
-      <c r="B415" s="27"/>
+      <c r="B415" s="28"/>
     </row>
     <row r="416">
-      <c r="B416" s="27"/>
+      <c r="B416" s="28"/>
     </row>
     <row r="417">
-      <c r="B417" s="27"/>
+      <c r="B417" s="28"/>
     </row>
     <row r="418">
-      <c r="B418" s="27"/>
+      <c r="B418" s="28"/>
     </row>
     <row r="419">
-      <c r="B419" s="27"/>
+      <c r="B419" s="28"/>
     </row>
     <row r="420">
-      <c r="B420" s="27"/>
+      <c r="B420" s="28"/>
     </row>
     <row r="421">
-      <c r="B421" s="27"/>
+      <c r="B421" s="28"/>
     </row>
     <row r="422">
-      <c r="B422" s="27"/>
+      <c r="B422" s="28"/>
     </row>
     <row r="423">
-      <c r="B423" s="27"/>
+      <c r="B423" s="28"/>
     </row>
     <row r="424">
-      <c r="B424" s="27"/>
+      <c r="B424" s="28"/>
     </row>
     <row r="425">
-      <c r="B425" s="27"/>
+      <c r="B425" s="28"/>
     </row>
     <row r="426">
-      <c r="B426" s="27"/>
+      <c r="B426" s="28"/>
     </row>
     <row r="427">
-      <c r="B427" s="27"/>
+      <c r="B427" s="28"/>
     </row>
     <row r="428">
-      <c r="B428" s="27"/>
+      <c r="B428" s="28"/>
     </row>
     <row r="429">
-      <c r="B429" s="27"/>
+      <c r="B429" s="28"/>
     </row>
     <row r="430">
-      <c r="B430" s="27"/>
+      <c r="B430" s="28"/>
     </row>
     <row r="431">
-      <c r="B431" s="27"/>
+      <c r="B431" s="28"/>
     </row>
     <row r="432">
-      <c r="B432" s="27"/>
+      <c r="B432" s="28"/>
     </row>
     <row r="433">
-      <c r="B433" s="27"/>
+      <c r="B433" s="28"/>
     </row>
     <row r="434">
-      <c r="B434" s="27"/>
+      <c r="B434" s="28"/>
     </row>
     <row r="435">
-      <c r="B435" s="27"/>
+      <c r="B435" s="28"/>
     </row>
     <row r="436">
-      <c r="B436" s="27"/>
+      <c r="B436" s="28"/>
     </row>
     <row r="437">
-      <c r="B437" s="27"/>
+      <c r="B437" s="28"/>
     </row>
     <row r="438">
-      <c r="B438" s="27"/>
+      <c r="B438" s="28"/>
     </row>
     <row r="439">
-      <c r="B439" s="27"/>
+      <c r="B439" s="28"/>
     </row>
     <row r="440">
-      <c r="B440" s="27"/>
+      <c r="B440" s="28"/>
     </row>
     <row r="441">
-      <c r="B441" s="27"/>
+      <c r="B441" s="28"/>
     </row>
     <row r="442">
-      <c r="B442" s="27"/>
+      <c r="B442" s="28"/>
     </row>
     <row r="443">
-      <c r="B443" s="27"/>
+      <c r="B443" s="28"/>
     </row>
     <row r="444">
-      <c r="B444" s="27"/>
+      <c r="B444" s="28"/>
     </row>
     <row r="445">
-      <c r="B445" s="27"/>
+      <c r="B445" s="28"/>
     </row>
     <row r="446">
-      <c r="B446" s="27"/>
+      <c r="B446" s="28"/>
     </row>
     <row r="447">
-      <c r="B447" s="27"/>
+      <c r="B447" s="28"/>
     </row>
     <row r="448">
-      <c r="B448" s="27"/>
+      <c r="B448" s="28"/>
     </row>
     <row r="449">
-      <c r="B449" s="27"/>
+      <c r="B449" s="28"/>
     </row>
     <row r="450">
-      <c r="B450" s="27"/>
+      <c r="B450" s="28"/>
     </row>
     <row r="451">
-      <c r="B451" s="27"/>
+      <c r="B451" s="28"/>
     </row>
     <row r="452">
-      <c r="B452" s="27"/>
+      <c r="B452" s="28"/>
     </row>
     <row r="453">
-      <c r="B453" s="27"/>
+      <c r="B453" s="28"/>
     </row>
     <row r="454">
-      <c r="B454" s="27"/>
+      <c r="B454" s="28"/>
     </row>
     <row r="455">
-      <c r="B455" s="27"/>
+      <c r="B455" s="28"/>
     </row>
     <row r="456">
-      <c r="B456" s="27"/>
+      <c r="B456" s="28"/>
     </row>
     <row r="457">
-      <c r="B457" s="27"/>
+      <c r="B457" s="28"/>
     </row>
     <row r="458">
-      <c r="B458" s="27"/>
+      <c r="B458" s="28"/>
     </row>
     <row r="459">
-      <c r="B459" s="27"/>
+      <c r="B459" s="28"/>
     </row>
     <row r="460">
-      <c r="B460" s="27"/>
+      <c r="B460" s="28"/>
     </row>
     <row r="461">
-      <c r="B461" s="27"/>
+      <c r="B461" s="28"/>
     </row>
     <row r="462">
-      <c r="B462" s="27"/>
+      <c r="B462" s="28"/>
     </row>
     <row r="463">
-      <c r="B463" s="27"/>
+      <c r="B463" s="28"/>
     </row>
     <row r="464">
-      <c r="B464" s="27"/>
+      <c r="B464" s="28"/>
     </row>
     <row r="465">
-      <c r="B465" s="27"/>
+      <c r="B465" s="28"/>
     </row>
     <row r="466">
-      <c r="B466" s="27"/>
+      <c r="B466" s="28"/>
     </row>
     <row r="467">
-      <c r="B467" s="27"/>
+      <c r="B467" s="28"/>
     </row>
     <row r="468">
-      <c r="B468" s="27"/>
+      <c r="B468" s="28"/>
     </row>
     <row r="469">
-      <c r="B469" s="27"/>
+      <c r="B469" s="28"/>
     </row>
     <row r="470">
-      <c r="B470" s="27"/>
+      <c r="B470" s="28"/>
     </row>
     <row r="471">
-      <c r="B471" s="27"/>
+      <c r="B471" s="28"/>
     </row>
     <row r="472">
-      <c r="B472" s="27"/>
+      <c r="B472" s="28"/>
     </row>
     <row r="473">
-      <c r="B473" s="27"/>
+      <c r="B473" s="28"/>
     </row>
     <row r="474">
-      <c r="B474" s="27"/>
+      <c r="B474" s="28"/>
     </row>
     <row r="475">
-      <c r="B475" s="27"/>
+      <c r="B475" s="28"/>
     </row>
     <row r="476">
-      <c r="B476" s="27"/>
+      <c r="B476" s="28"/>
     </row>
     <row r="477">
-      <c r="B477" s="27"/>
+      <c r="B477" s="28"/>
     </row>
     <row r="478">
-      <c r="B478" s="27"/>
+      <c r="B478" s="28"/>
     </row>
     <row r="479">
-      <c r="B479" s="27"/>
+      <c r="B479" s="28"/>
     </row>
     <row r="480">
-      <c r="B480" s="27"/>
+      <c r="B480" s="28"/>
     </row>
     <row r="481">
-      <c r="B481" s="27"/>
+      <c r="B481" s="28"/>
     </row>
     <row r="482">
-      <c r="B482" s="27"/>
+      <c r="B482" s="28"/>
     </row>
     <row r="483">
-      <c r="B483" s="27"/>
+      <c r="B483" s="28"/>
     </row>
     <row r="484">
-      <c r="B484" s="27"/>
+      <c r="B484" s="28"/>
     </row>
     <row r="485">
-      <c r="B485" s="27"/>
+      <c r="B485" s="28"/>
     </row>
     <row r="486">
-      <c r="B486" s="27"/>
+      <c r="B486" s="28"/>
     </row>
     <row r="487">
-      <c r="B487" s="27"/>
+      <c r="B487" s="28"/>
     </row>
     <row r="488">
-      <c r="B488" s="27"/>
+      <c r="B488" s="28"/>
     </row>
     <row r="489">
-      <c r="B489" s="27"/>
+      <c r="B489" s="28"/>
     </row>
     <row r="490">
-      <c r="B490" s="27"/>
+      <c r="B490" s="28"/>
     </row>
     <row r="491">
-      <c r="B491" s="27"/>
+      <c r="B491" s="28"/>
     </row>
     <row r="492">
-      <c r="B492" s="27"/>
+      <c r="B492" s="28"/>
     </row>
     <row r="493">
-      <c r="B493" s="27"/>
+      <c r="B493" s="28"/>
     </row>
     <row r="494">
-      <c r="B494" s="27"/>
+      <c r="B494" s="28"/>
     </row>
     <row r="495">
-      <c r="B495" s="27"/>
+      <c r="B495" s="28"/>
     </row>
     <row r="496">
-      <c r="B496" s="27"/>
+      <c r="B496" s="28"/>
     </row>
     <row r="497">
-      <c r="B497" s="27"/>
+      <c r="B497" s="28"/>
     </row>
     <row r="498">
-      <c r="B498" s="27"/>
+      <c r="B498" s="28"/>
     </row>
     <row r="499">
-      <c r="B499" s="27"/>
+      <c r="B499" s="28"/>
     </row>
     <row r="500">
-      <c r="B500" s="27"/>
+      <c r="B500" s="28"/>
     </row>
     <row r="501">
-      <c r="B501" s="27"/>
+      <c r="B501" s="28"/>
     </row>
     <row r="502">
-      <c r="B502" s="27"/>
+      <c r="B502" s="28"/>
     </row>
     <row r="503">
-      <c r="B503" s="27"/>
+      <c r="B503" s="28"/>
     </row>
     <row r="504">
-      <c r="B504" s="27"/>
+      <c r="B504" s="28"/>
     </row>
     <row r="505">
-      <c r="B505" s="27"/>
+      <c r="B505" s="28"/>
     </row>
     <row r="506">
-      <c r="B506" s="27"/>
+      <c r="B506" s="28"/>
     </row>
     <row r="507">
-      <c r="B507" s="27"/>
+      <c r="B507" s="28"/>
     </row>
     <row r="508">
-      <c r="B508" s="27"/>
+      <c r="B508" s="28"/>
     </row>
     <row r="509">
-      <c r="B509" s="27"/>
+      <c r="B509" s="28"/>
     </row>
     <row r="510">
-      <c r="B510" s="27"/>
+      <c r="B510" s="28"/>
     </row>
     <row r="511">
-      <c r="B511" s="27"/>
+      <c r="B511" s="28"/>
     </row>
     <row r="512">
-      <c r="B512" s="27"/>
+      <c r="B512" s="28"/>
     </row>
     <row r="513">
-      <c r="B513" s="27"/>
+      <c r="B513" s="28"/>
     </row>
     <row r="514">
-      <c r="B514" s="27"/>
+      <c r="B514" s="28"/>
     </row>
     <row r="515">
-      <c r="B515" s="27"/>
+      <c r="B515" s="28"/>
     </row>
     <row r="516">
-      <c r="B516" s="27"/>
+      <c r="B516" s="28"/>
     </row>
     <row r="517">
-      <c r="B517" s="27"/>
+      <c r="B517" s="28"/>
     </row>
     <row r="518">
-      <c r="B518" s="27"/>
+      <c r="B518" s="28"/>
     </row>
     <row r="519">
-      <c r="B519" s="27"/>
+      <c r="B519" s="28"/>
     </row>
     <row r="520">
-      <c r="B520" s="27"/>
+      <c r="B520" s="28"/>
     </row>
     <row r="521">
-      <c r="B521" s="27"/>
+      <c r="B521" s="28"/>
     </row>
     <row r="522">
-      <c r="B522" s="27"/>
+      <c r="B522" s="28"/>
     </row>
     <row r="523">
-      <c r="B523" s="27"/>
+      <c r="B523" s="28"/>
     </row>
     <row r="524">
-      <c r="B524" s="27"/>
+      <c r="B524" s="28"/>
     </row>
     <row r="525">
-      <c r="B525" s="27"/>
+      <c r="B525" s="28"/>
     </row>
     <row r="526">
-      <c r="B526" s="27"/>
+      <c r="B526" s="28"/>
     </row>
     <row r="527">
-      <c r="B527" s="27"/>
+      <c r="B527" s="28"/>
     </row>
     <row r="528">
-      <c r="B528" s="27"/>
+      <c r="B528" s="28"/>
     </row>
     <row r="529">
-      <c r="B529" s="27"/>
+      <c r="B529" s="28"/>
     </row>
     <row r="530">
-      <c r="B530" s="27"/>
+      <c r="B530" s="28"/>
     </row>
     <row r="531">
-      <c r="B531" s="27"/>
+      <c r="B531" s="28"/>
     </row>
     <row r="532">
-      <c r="B532" s="27"/>
+      <c r="B532" s="28"/>
     </row>
     <row r="533">
-      <c r="B533" s="27"/>
+      <c r="B533" s="28"/>
     </row>
     <row r="534">
-      <c r="B534" s="27"/>
+      <c r="B534" s="28"/>
     </row>
     <row r="535">
-      <c r="B535" s="27"/>
+      <c r="B535" s="28"/>
     </row>
     <row r="536">
-      <c r="B536" s="27"/>
+      <c r="B536" s="28"/>
     </row>
     <row r="537">
-      <c r="B537" s="27"/>
+      <c r="B537" s="28"/>
     </row>
     <row r="538">
-      <c r="B538" s="27"/>
+      <c r="B538" s="28"/>
     </row>
     <row r="539">
-      <c r="B539" s="27"/>
+      <c r="B539" s="28"/>
     </row>
     <row r="540">
-      <c r="B540" s="27"/>
+      <c r="B540" s="28"/>
     </row>
     <row r="541">
-      <c r="B541" s="27"/>
+      <c r="B541" s="28"/>
     </row>
     <row r="542">
-      <c r="B542" s="27"/>
+      <c r="B542" s="28"/>
     </row>
     <row r="543">
-      <c r="B543" s="27"/>
+      <c r="B543" s="28"/>
     </row>
     <row r="544">
-      <c r="B544" s="27"/>
+      <c r="B544" s="28"/>
     </row>
     <row r="545">
-      <c r="B545" s="27"/>
+      <c r="B545" s="28"/>
     </row>
     <row r="546">
-      <c r="B546" s="27"/>
+      <c r="B546" s="28"/>
     </row>
     <row r="547">
-      <c r="B547" s="27"/>
+      <c r="B547" s="28"/>
     </row>
     <row r="548">
-      <c r="B548" s="27"/>
+      <c r="B548" s="28"/>
     </row>
     <row r="549">
-      <c r="B549" s="27"/>
+      <c r="B549" s="28"/>
     </row>
     <row r="550">
-      <c r="B550" s="27"/>
+      <c r="B550" s="28"/>
     </row>
     <row r="551">
-      <c r="B551" s="27"/>
+      <c r="B551" s="28"/>
     </row>
     <row r="552">
-      <c r="B552" s="27"/>
+      <c r="B552" s="28"/>
     </row>
     <row r="553">
-      <c r="B553" s="27"/>
+      <c r="B553" s="28"/>
     </row>
     <row r="554">
-      <c r="B554" s="27"/>
+      <c r="B554" s="28"/>
     </row>
     <row r="555">
-      <c r="B555" s="27"/>
+      <c r="B555" s="28"/>
     </row>
     <row r="556">
-      <c r="B556" s="27"/>
+      <c r="B556" s="28"/>
     </row>
     <row r="557">
-      <c r="B557" s="27"/>
+      <c r="B557" s="28"/>
     </row>
     <row r="558">
-      <c r="B558" s="27"/>
+      <c r="B558" s="28"/>
     </row>
     <row r="559">
-      <c r="B559" s="27"/>
+      <c r="B559" s="28"/>
     </row>
     <row r="560">
-      <c r="B560" s="27"/>
+      <c r="B560" s="28"/>
     </row>
     <row r="561">
-      <c r="B561" s="27"/>
+      <c r="B561" s="28"/>
     </row>
     <row r="562">
-      <c r="B562" s="27"/>
+      <c r="B562" s="28"/>
     </row>
     <row r="563">
-      <c r="B563" s="27"/>
+      <c r="B563" s="28"/>
     </row>
     <row r="564">
-      <c r="B564" s="27"/>
+      <c r="B564" s="28"/>
     </row>
     <row r="565">
-      <c r="B565" s="27"/>
+      <c r="B565" s="28"/>
     </row>
     <row r="566">
-      <c r="B566" s="27"/>
+      <c r="B566" s="28"/>
     </row>
     <row r="567">
-      <c r="B567" s="27"/>
+      <c r="B567" s="28"/>
     </row>
     <row r="568">
-      <c r="B568" s="27"/>
+      <c r="B568" s="28"/>
     </row>
     <row r="569">
-      <c r="B569" s="27"/>
+      <c r="B569" s="28"/>
     </row>
     <row r="570">
-      <c r="B570" s="27"/>
+      <c r="B570" s="28"/>
     </row>
     <row r="571">
-      <c r="B571" s="27"/>
+      <c r="B571" s="28"/>
     </row>
     <row r="572">
-      <c r="B572" s="27"/>
+      <c r="B572" s="28"/>
     </row>
     <row r="573">
-      <c r="B573" s="27"/>
+      <c r="B573" s="28"/>
     </row>
     <row r="574">
-      <c r="B574" s="27"/>
+      <c r="B574" s="28"/>
     </row>
     <row r="575">
-      <c r="B575" s="27"/>
+      <c r="B575" s="28"/>
     </row>
     <row r="576">
-      <c r="B576" s="27"/>
+      <c r="B576" s="28"/>
     </row>
     <row r="577">
-      <c r="B577" s="27"/>
+      <c r="B577" s="28"/>
     </row>
     <row r="578">
-      <c r="B578" s="27"/>
+      <c r="B578" s="28"/>
     </row>
     <row r="579">
-      <c r="B579" s="27"/>
+      <c r="B579" s="28"/>
     </row>
     <row r="580">
-      <c r="B580" s="27"/>
+      <c r="B580" s="28"/>
     </row>
     <row r="581">
-      <c r="B581" s="27"/>
+      <c r="B581" s="28"/>
     </row>
     <row r="582">
-      <c r="B582" s="27"/>
+      <c r="B582" s="28"/>
     </row>
     <row r="583">
-      <c r="B583" s="27"/>
+      <c r="B583" s="28"/>
     </row>
     <row r="584">
-      <c r="B584" s="27"/>
+      <c r="B584" s="28"/>
     </row>
     <row r="585">
-      <c r="B585" s="27"/>
+      <c r="B585" s="28"/>
     </row>
     <row r="586">
-      <c r="B586" s="27"/>
+      <c r="B586" s="28"/>
     </row>
     <row r="587">
-      <c r="B587" s="27"/>
+      <c r="B587" s="28"/>
     </row>
     <row r="588">
-      <c r="B588" s="27"/>
+      <c r="B588" s="28"/>
     </row>
     <row r="589">
-      <c r="B589" s="27"/>
+      <c r="B589" s="28"/>
     </row>
     <row r="590">
-      <c r="B590" s="27"/>
+      <c r="B590" s="28"/>
     </row>
     <row r="591">
-      <c r="B591" s="27"/>
+      <c r="B591" s="28"/>
     </row>
     <row r="592">
-      <c r="B592" s="27"/>
+      <c r="B592" s="28"/>
     </row>
     <row r="593">
-      <c r="B593" s="27"/>
+      <c r="B593" s="28"/>
     </row>
     <row r="594">
-      <c r="B594" s="27"/>
+      <c r="B594" s="28"/>
     </row>
     <row r="595">
-      <c r="B595" s="27"/>
+      <c r="B595" s="28"/>
     </row>
     <row r="596">
-      <c r="B596" s="27"/>
+      <c r="B596" s="28"/>
     </row>
     <row r="597">
-      <c r="B597" s="27"/>
+      <c r="B597" s="28"/>
     </row>
     <row r="598">
-      <c r="B598" s="27"/>
+      <c r="B598" s="28"/>
     </row>
     <row r="599">
-      <c r="B599" s="27"/>
+      <c r="B599" s="28"/>
     </row>
     <row r="600">
-      <c r="B600" s="27"/>
+      <c r="B600" s="28"/>
     </row>
     <row r="601">
-      <c r="B601" s="27"/>
+      <c r="B601" s="28"/>
     </row>
     <row r="602">
-      <c r="B602" s="27"/>
+      <c r="B602" s="28"/>
     </row>
     <row r="603">
-      <c r="B603" s="27"/>
+      <c r="B603" s="28"/>
     </row>
     <row r="604">
-      <c r="B604" s="27"/>
+      <c r="B604" s="28"/>
     </row>
     <row r="605">
-      <c r="B605" s="27"/>
+      <c r="B605" s="28"/>
     </row>
     <row r="606">
-      <c r="B606" s="27"/>
+      <c r="B606" s="28"/>
     </row>
     <row r="607">
-      <c r="B607" s="27"/>
+      <c r="B607" s="28"/>
     </row>
     <row r="608">
-      <c r="B608" s="27"/>
+      <c r="B608" s="28"/>
     </row>
     <row r="609">
-      <c r="B609" s="27"/>
+      <c r="B609" s="28"/>
     </row>
     <row r="610">
-      <c r="B610" s="27"/>
+      <c r="B610" s="28"/>
     </row>
     <row r="611">
-      <c r="B611" s="27"/>
+      <c r="B611" s="28"/>
     </row>
     <row r="612">
-      <c r="B612" s="27"/>
+      <c r="B612" s="28"/>
     </row>
     <row r="613">
-      <c r="B613" s="27"/>
+      <c r="B613" s="28"/>
     </row>
     <row r="614">
-      <c r="B614" s="27"/>
+      <c r="B614" s="28"/>
     </row>
     <row r="615">
-      <c r="B615" s="27"/>
+      <c r="B615" s="28"/>
     </row>
     <row r="616">
-      <c r="B616" s="27"/>
+      <c r="B616" s="28"/>
     </row>
     <row r="617">
-      <c r="B617" s="27"/>
+      <c r="B617" s="28"/>
     </row>
     <row r="618">
-      <c r="B618" s="27"/>
+      <c r="B618" s="28"/>
     </row>
     <row r="619">
-      <c r="B619" s="27"/>
+      <c r="B619" s="28"/>
     </row>
     <row r="620">
-      <c r="B620" s="27"/>
+      <c r="B620" s="28"/>
     </row>
     <row r="621">
-      <c r="B621" s="27"/>
+      <c r="B621" s="28"/>
     </row>
     <row r="622">
-      <c r="B622" s="27"/>
+      <c r="B622" s="28"/>
     </row>
     <row r="623">
-      <c r="B623" s="27"/>
+      <c r="B623" s="28"/>
     </row>
     <row r="624">
-      <c r="B624" s="27"/>
+      <c r="B624" s="28"/>
     </row>
     <row r="625">
-      <c r="B625" s="27"/>
+      <c r="B625" s="28"/>
     </row>
     <row r="626">
-      <c r="B626" s="27"/>
+      <c r="B626" s="28"/>
     </row>
     <row r="627">
-      <c r="B627" s="27"/>
+      <c r="B627" s="28"/>
     </row>
     <row r="628">
-      <c r="B628" s="27"/>
+      <c r="B628" s="28"/>
     </row>
     <row r="629">
-      <c r="B629" s="27"/>
+      <c r="B629" s="28"/>
     </row>
     <row r="630">
-      <c r="B630" s="27"/>
+      <c r="B630" s="28"/>
     </row>
     <row r="631">
-      <c r="B631" s="27"/>
+      <c r="B631" s="28"/>
     </row>
     <row r="632">
-      <c r="B632" s="27"/>
+      <c r="B632" s="28"/>
     </row>
     <row r="633">
-      <c r="B633" s="27"/>
+      <c r="B633" s="28"/>
     </row>
     <row r="634">
-      <c r="B634" s="27"/>
+      <c r="B634" s="28"/>
     </row>
     <row r="635">
-      <c r="B635" s="27"/>
+      <c r="B635" s="28"/>
     </row>
     <row r="636">
-      <c r="B636" s="27"/>
+      <c r="B636" s="28"/>
     </row>
     <row r="637">
-      <c r="B637" s="27"/>
+      <c r="B637" s="28"/>
     </row>
     <row r="638">
-      <c r="B638" s="27"/>
+      <c r="B638" s="28"/>
     </row>
     <row r="639">
-      <c r="B639" s="27"/>
+      <c r="B639" s="28"/>
     </row>
     <row r="640">
-      <c r="B640" s="27"/>
+      <c r="B640" s="28"/>
     </row>
     <row r="641">
-      <c r="B641" s="27"/>
+      <c r="B641" s="28"/>
     </row>
     <row r="642">
-      <c r="B642" s="27"/>
+      <c r="B642" s="28"/>
     </row>
     <row r="643">
-      <c r="B643" s="27"/>
+      <c r="B643" s="28"/>
     </row>
     <row r="644">
-      <c r="B644" s="27"/>
+      <c r="B644" s="28"/>
     </row>
     <row r="645">
-      <c r="B645" s="27"/>
+      <c r="B645" s="28"/>
     </row>
     <row r="646">
-      <c r="B646" s="27"/>
+      <c r="B646" s="28"/>
     </row>
     <row r="647">
-      <c r="B647" s="27"/>
+      <c r="B647" s="28"/>
     </row>
     <row r="648">
-      <c r="B648" s="27"/>
+      <c r="B648" s="28"/>
     </row>
     <row r="649">
-      <c r="B649" s="27"/>
+      <c r="B649" s="28"/>
     </row>
     <row r="650">
-      <c r="B650" s="27"/>
+      <c r="B650" s="28"/>
     </row>
     <row r="651">
-      <c r="B651" s="27"/>
+      <c r="B651" s="28"/>
     </row>
     <row r="652">
-      <c r="B652" s="27"/>
+      <c r="B652" s="28"/>
     </row>
     <row r="653">
-      <c r="B653" s="27"/>
+      <c r="B653" s="28"/>
     </row>
     <row r="654">
-      <c r="B654" s="27"/>
+      <c r="B654" s="28"/>
     </row>
     <row r="655">
-      <c r="B655" s="27"/>
+      <c r="B655" s="28"/>
     </row>
     <row r="656">
-      <c r="B656" s="27"/>
+      <c r="B656" s="28"/>
     </row>
     <row r="657">
-      <c r="B657" s="27"/>
+      <c r="B657" s="28"/>
     </row>
     <row r="658">
-      <c r="B658" s="27"/>
+      <c r="B658" s="28"/>
     </row>
     <row r="659">
-      <c r="B659" s="27"/>
+      <c r="B659" s="28"/>
     </row>
     <row r="660">
-      <c r="B660" s="27"/>
+      <c r="B660" s="28"/>
     </row>
     <row r="661">
-      <c r="B661" s="27"/>
+      <c r="B661" s="28"/>
     </row>
     <row r="662">
-      <c r="B662" s="27"/>
+      <c r="B662" s="28"/>
     </row>
     <row r="663">
-      <c r="B663" s="27"/>
+      <c r="B663" s="28"/>
     </row>
     <row r="664">
-      <c r="B664" s="27"/>
+      <c r="B664" s="28"/>
     </row>
     <row r="665">
-      <c r="B665" s="27"/>
+      <c r="B665" s="28"/>
     </row>
     <row r="666">
-      <c r="B666" s="27"/>
+      <c r="B666" s="28"/>
     </row>
     <row r="667">
-      <c r="B667" s="27"/>
+      <c r="B667" s="28"/>
     </row>
     <row r="668">
-      <c r="B668" s="27"/>
+      <c r="B668" s="28"/>
     </row>
     <row r="669">
-      <c r="B669" s="27"/>
+      <c r="B669" s="28"/>
     </row>
     <row r="670">
-      <c r="B670" s="27"/>
+      <c r="B670" s="28"/>
     </row>
     <row r="671">
-      <c r="B671" s="27"/>
+      <c r="B671" s="28"/>
     </row>
     <row r="672">
-      <c r="B672" s="27"/>
+      <c r="B672" s="28"/>
     </row>
     <row r="673">
-      <c r="B673" s="27"/>
+      <c r="B673" s="28"/>
     </row>
     <row r="674">
-      <c r="B674" s="27"/>
+      <c r="B674" s="28"/>
     </row>
     <row r="675">
-      <c r="B675" s="27"/>
+      <c r="B675" s="28"/>
     </row>
     <row r="676">
-      <c r="B676" s="27"/>
+      <c r="B676" s="28"/>
     </row>
     <row r="677">
-      <c r="B677" s="27"/>
+      <c r="B677" s="28"/>
     </row>
     <row r="678">
-      <c r="B678" s="27"/>
+      <c r="B678" s="28"/>
     </row>
     <row r="679">
-      <c r="B679" s="27"/>
+      <c r="B679" s="28"/>
     </row>
     <row r="680">
-      <c r="B680" s="27"/>
+      <c r="B680" s="28"/>
     </row>
     <row r="681">
-      <c r="B681" s="27"/>
+      <c r="B681" s="28"/>
     </row>
     <row r="682">
-      <c r="B682" s="27"/>
+      <c r="B682" s="28"/>
     </row>
     <row r="683">
-      <c r="B683" s="27"/>
+      <c r="B683" s="28"/>
     </row>
     <row r="684">
-      <c r="B684" s="27"/>
+      <c r="B684" s="28"/>
     </row>
     <row r="685">
-      <c r="B685" s="27"/>
+      <c r="B685" s="28"/>
     </row>
     <row r="686">
-      <c r="B686" s="27"/>
+      <c r="B686" s="28"/>
     </row>
     <row r="687">
-      <c r="B687" s="27"/>
+      <c r="B687" s="28"/>
     </row>
     <row r="688">
-      <c r="B688" s="27"/>
+      <c r="B688" s="28"/>
     </row>
     <row r="689">
-      <c r="B689" s="27"/>
+      <c r="B689" s="28"/>
     </row>
     <row r="690">
-      <c r="B690" s="27"/>
+      <c r="B690" s="28"/>
     </row>
     <row r="691">
-      <c r="B691" s="27"/>
+      <c r="B691" s="28"/>
     </row>
     <row r="692">
-      <c r="B692" s="27"/>
+      <c r="B692" s="28"/>
     </row>
     <row r="693">
-      <c r="B693" s="27"/>
+      <c r="B693" s="28"/>
     </row>
     <row r="694">
-      <c r="B694" s="27"/>
+      <c r="B694" s="28"/>
     </row>
     <row r="695">
-      <c r="B695" s="27"/>
+      <c r="B695" s="28"/>
     </row>
     <row r="696">
-      <c r="B696" s="27"/>
+      <c r="B696" s="28"/>
     </row>
     <row r="697">
-      <c r="B697" s="27"/>
+      <c r="B697" s="28"/>
     </row>
     <row r="698">
-      <c r="B698" s="27"/>
+      <c r="B698" s="28"/>
     </row>
     <row r="699">
-      <c r="B699" s="27"/>
+      <c r="B699" s="28"/>
     </row>
     <row r="700">
-      <c r="B700" s="27"/>
+      <c r="B700" s="28"/>
     </row>
     <row r="701">
-      <c r="B701" s="27"/>
+      <c r="B701" s="28"/>
     </row>
     <row r="702">
-      <c r="B702" s="27"/>
+      <c r="B702" s="28"/>
     </row>
     <row r="703">
-      <c r="B703" s="27"/>
+      <c r="B703" s="28"/>
     </row>
     <row r="704">
-      <c r="B704" s="27"/>
+      <c r="B704" s="28"/>
     </row>
     <row r="705">
-      <c r="B705" s="27"/>
+      <c r="B705" s="28"/>
     </row>
     <row r="706">
-      <c r="B706" s="27"/>
+      <c r="B706" s="28"/>
     </row>
     <row r="707">
-      <c r="B707" s="27"/>
+      <c r="B707" s="28"/>
     </row>
     <row r="708">
-      <c r="B708" s="27"/>
+      <c r="B708" s="28"/>
     </row>
     <row r="709">
-      <c r="B709" s="27"/>
+      <c r="B709" s="28"/>
     </row>
     <row r="710">
-      <c r="B710" s="27"/>
+      <c r="B710" s="28"/>
     </row>
     <row r="711">
-      <c r="B711" s="27"/>
+      <c r="B711" s="28"/>
     </row>
     <row r="712">
-      <c r="B712" s="27"/>
+      <c r="B712" s="28"/>
     </row>
     <row r="713">
-      <c r="B713" s="27"/>
+      <c r="B713" s="28"/>
     </row>
     <row r="714">
-      <c r="B714" s="27"/>
+      <c r="B714" s="28"/>
     </row>
     <row r="715">
-      <c r="B715" s="27"/>
+      <c r="B715" s="28"/>
     </row>
     <row r="716">
-      <c r="B716" s="27"/>
+      <c r="B716" s="28"/>
     </row>
     <row r="717">
-      <c r="B717" s="27"/>
+      <c r="B717" s="28"/>
     </row>
     <row r="718">
-      <c r="B718" s="27"/>
+      <c r="B718" s="28"/>
     </row>
     <row r="719">
-      <c r="B719" s="27"/>
+      <c r="B719" s="28"/>
     </row>
     <row r="720">
-      <c r="B720" s="27"/>
+      <c r="B720" s="28"/>
     </row>
     <row r="721">
-      <c r="B721" s="27"/>
+      <c r="B721" s="28"/>
     </row>
     <row r="722">
-      <c r="B722" s="27"/>
+      <c r="B722" s="28"/>
     </row>
     <row r="723">
-      <c r="B723" s="27"/>
+      <c r="B723" s="28"/>
     </row>
     <row r="724">
-      <c r="B724" s="27"/>
+      <c r="B724" s="28"/>
     </row>
     <row r="725">
-      <c r="B725" s="27"/>
+      <c r="B725" s="28"/>
     </row>
     <row r="726">
-      <c r="B726" s="27"/>
+      <c r="B726" s="28"/>
     </row>
     <row r="727">
-      <c r="B727" s="27"/>
+      <c r="B727" s="28"/>
     </row>
     <row r="728">
-      <c r="B728" s="27"/>
+      <c r="B728" s="28"/>
     </row>
     <row r="729">
-      <c r="B729" s="27"/>
+      <c r="B729" s="28"/>
     </row>
     <row r="730">
-      <c r="B730" s="27"/>
+      <c r="B730" s="28"/>
     </row>
     <row r="731">
-      <c r="B731" s="27"/>
+      <c r="B731" s="28"/>
     </row>
     <row r="732">
-      <c r="B732" s="27"/>
+      <c r="B732" s="28"/>
     </row>
     <row r="733">
-      <c r="B733" s="27"/>
+      <c r="B733" s="28"/>
     </row>
     <row r="734">
-      <c r="B734" s="27"/>
+      <c r="B734" s="28"/>
     </row>
     <row r="735">
-      <c r="B735" s="27"/>
+      <c r="B735" s="28"/>
     </row>
     <row r="736">
-      <c r="B736" s="27"/>
+      <c r="B736" s="28"/>
     </row>
     <row r="737">
-      <c r="B737" s="27"/>
+      <c r="B737" s="28"/>
     </row>
     <row r="738">
-      <c r="B738" s="27"/>
+      <c r="B738" s="28"/>
     </row>
     <row r="739">
-      <c r="B739" s="27"/>
+      <c r="B739" s="28"/>
     </row>
     <row r="740">
-      <c r="B740" s="27"/>
+      <c r="B740" s="28"/>
     </row>
     <row r="741">
-      <c r="B741" s="27"/>
+      <c r="B741" s="28"/>
     </row>
     <row r="742">
-      <c r="B742" s="27"/>
+      <c r="B742" s="28"/>
     </row>
     <row r="743">
-      <c r="B743" s="27"/>
+      <c r="B743" s="28"/>
     </row>
     <row r="744">
-      <c r="B744" s="27"/>
+      <c r="B744" s="28"/>
     </row>
     <row r="745">
-      <c r="B745" s="27"/>
+      <c r="B745" s="28"/>
     </row>
     <row r="746">
-      <c r="B746" s="27"/>
+      <c r="B746" s="28"/>
     </row>
     <row r="747">
-      <c r="B747" s="27"/>
+      <c r="B747" s="28"/>
     </row>
     <row r="748">
-      <c r="B748" s="27"/>
+      <c r="B748" s="28"/>
     </row>
     <row r="749">
-      <c r="B749" s="27"/>
+      <c r="B749" s="28"/>
     </row>
     <row r="750">
-      <c r="B750" s="27"/>
+      <c r="B750" s="28"/>
     </row>
     <row r="751">
-      <c r="B751" s="27"/>
+      <c r="B751" s="28"/>
     </row>
     <row r="752">
-      <c r="B752" s="27"/>
+      <c r="B752" s="28"/>
     </row>
     <row r="753">
-      <c r="B753" s="27"/>
+      <c r="B753" s="28"/>
     </row>
     <row r="754">
-      <c r="B754" s="27"/>
+      <c r="B754" s="28"/>
     </row>
     <row r="755">
-      <c r="B755" s="27"/>
+      <c r="B755" s="28"/>
     </row>
     <row r="756">
-      <c r="B756" s="27"/>
+      <c r="B756" s="28"/>
     </row>
     <row r="757">
-      <c r="B757" s="27"/>
+      <c r="B757" s="28"/>
     </row>
     <row r="758">
-      <c r="B758" s="27"/>
+      <c r="B758" s="28"/>
     </row>
     <row r="759">
-      <c r="B759" s="27"/>
+      <c r="B759" s="28"/>
     </row>
     <row r="760">
-      <c r="B760" s="27"/>
+      <c r="B760" s="28"/>
     </row>
     <row r="761">
-      <c r="B761" s="27"/>
+      <c r="B761" s="28"/>
     </row>
     <row r="762">
-      <c r="B762" s="27"/>
+      <c r="B762" s="28"/>
     </row>
     <row r="763">
-      <c r="B763" s="27"/>
+      <c r="B763" s="28"/>
     </row>
     <row r="764">
-      <c r="B764" s="27"/>
+      <c r="B764" s="28"/>
     </row>
     <row r="765">
-      <c r="B765" s="27"/>
+      <c r="B765" s="28"/>
     </row>
     <row r="766">
-      <c r="B766" s="27"/>
+      <c r="B766" s="28"/>
     </row>
     <row r="767">
-      <c r="B767" s="27"/>
+      <c r="B767" s="28"/>
     </row>
     <row r="768">
-      <c r="B768" s="27"/>
+      <c r="B768" s="28"/>
     </row>
     <row r="769">
-      <c r="B769" s="27"/>
+      <c r="B769" s="28"/>
     </row>
     <row r="770">
-      <c r="B770" s="27"/>
+      <c r="B770" s="28"/>
     </row>
     <row r="771">
-      <c r="B771" s="27"/>
+      <c r="B771" s="28"/>
     </row>
     <row r="772">
-      <c r="B772" s="27"/>
+      <c r="B772" s="28"/>
     </row>
     <row r="773">
-      <c r="B773" s="27"/>
+      <c r="B773" s="28"/>
     </row>
     <row r="774">
-      <c r="B774" s="27"/>
+      <c r="B774" s="28"/>
     </row>
     <row r="775">
-      <c r="B775" s="27"/>
+      <c r="B775" s="28"/>
     </row>
     <row r="776">
-      <c r="B776" s="27"/>
+      <c r="B776" s="28"/>
     </row>
     <row r="777">
-      <c r="B777" s="27"/>
+      <c r="B777" s="28"/>
     </row>
     <row r="778">
-      <c r="B778" s="27"/>
+      <c r="B778" s="28"/>
     </row>
     <row r="779">
-      <c r="B779" s="27"/>
+      <c r="B779" s="28"/>
     </row>
     <row r="780">
-      <c r="B780" s="27"/>
+      <c r="B780" s="28"/>
     </row>
     <row r="781">
-      <c r="B781" s="27"/>
+      <c r="B781" s="28"/>
     </row>
     <row r="782">
-      <c r="B782" s="27"/>
+      <c r="B782" s="28"/>
     </row>
     <row r="783">
-      <c r="B783" s="27"/>
+      <c r="B783" s="28"/>
     </row>
     <row r="784">
-      <c r="B784" s="27"/>
+      <c r="B784" s="28"/>
     </row>
     <row r="785">
-      <c r="B785" s="27"/>
+      <c r="B785" s="28"/>
     </row>
     <row r="786">
-      <c r="B786" s="27"/>
+      <c r="B786" s="28"/>
     </row>
     <row r="787">
-      <c r="B787" s="27"/>
+      <c r="B787" s="28"/>
     </row>
     <row r="788">
-      <c r="B788" s="27"/>
+      <c r="B788" s="28"/>
     </row>
     <row r="789">
-      <c r="B789" s="27"/>
+      <c r="B789" s="28"/>
     </row>
     <row r="790">
-      <c r="B790" s="27"/>
+      <c r="B790" s="28"/>
     </row>
     <row r="791">
-      <c r="B791" s="27"/>
+      <c r="B791" s="28"/>
     </row>
     <row r="792">
-      <c r="B792" s="27"/>
+      <c r="B792" s="28"/>
     </row>
     <row r="793">
-      <c r="B793" s="27"/>
+      <c r="B793" s="28"/>
     </row>
     <row r="794">
-      <c r="B794" s="27"/>
+      <c r="B794" s="28"/>
     </row>
     <row r="795">
-      <c r="B795" s="27"/>
+      <c r="B795" s="28"/>
     </row>
     <row r="796">
-      <c r="B796" s="27"/>
+      <c r="B796" s="28"/>
     </row>
     <row r="797">
-      <c r="B797" s="27"/>
+      <c r="B797" s="28"/>
     </row>
     <row r="798">
-      <c r="B798" s="27"/>
+      <c r="B798" s="28"/>
     </row>
     <row r="799">
-      <c r="B799" s="27"/>
+      <c r="B799" s="28"/>
     </row>
     <row r="800">
-      <c r="B800" s="27"/>
+      <c r="B800" s="28"/>
     </row>
     <row r="801">
-      <c r="B801" s="27"/>
+      <c r="B801" s="28"/>
     </row>
     <row r="802">
-      <c r="B802" s="27"/>
+      <c r="B802" s="28"/>
     </row>
     <row r="803">
-      <c r="B803" s="27"/>
+      <c r="B803" s="28"/>
     </row>
     <row r="804">
-      <c r="B804" s="27"/>
+      <c r="B804" s="28"/>
     </row>
     <row r="805">
-      <c r="B805" s="27"/>
+      <c r="B805" s="28"/>
     </row>
     <row r="806">
-      <c r="B806" s="27"/>
+      <c r="B806" s="28"/>
     </row>
     <row r="807">
-      <c r="B807" s="27"/>
+      <c r="B807" s="28"/>
     </row>
     <row r="808">
-      <c r="B808" s="27"/>
+      <c r="B808" s="28"/>
     </row>
     <row r="809">
-      <c r="B809" s="27"/>
+      <c r="B809" s="28"/>
     </row>
     <row r="810">
-      <c r="B810" s="27"/>
+      <c r="B810" s="28"/>
     </row>
     <row r="811">
-      <c r="B811" s="27"/>
+      <c r="B811" s="28"/>
     </row>
     <row r="812">
-      <c r="B812" s="27"/>
+      <c r="B812" s="28"/>
     </row>
     <row r="813">
-      <c r="B813" s="27"/>
+      <c r="B813" s="28"/>
     </row>
     <row r="814">
-      <c r="B814" s="27"/>
+      <c r="B814" s="28"/>
     </row>
     <row r="815">
-      <c r="B815" s="27"/>
+      <c r="B815" s="28"/>
     </row>
     <row r="816">
-      <c r="B816" s="27"/>
+      <c r="B816" s="28"/>
     </row>
     <row r="817">
-      <c r="B817" s="27"/>
+      <c r="B817" s="28"/>
     </row>
     <row r="818">
-      <c r="B818" s="27"/>
+      <c r="B818" s="28"/>
     </row>
     <row r="819">
-      <c r="B819" s="27"/>
+      <c r="B819" s="28"/>
     </row>
     <row r="820">
-      <c r="B820" s="27"/>
+      <c r="B820" s="28"/>
     </row>
     <row r="821">
-      <c r="B821" s="27"/>
+      <c r="B821" s="28"/>
     </row>
     <row r="822">
-      <c r="B822" s="27"/>
+      <c r="B822" s="28"/>
     </row>
     <row r="823">
-      <c r="B823" s="27"/>
+      <c r="B823" s="28"/>
     </row>
     <row r="824">
-      <c r="B824" s="27"/>
+      <c r="B824" s="28"/>
     </row>
     <row r="825">
-      <c r="B825" s="27"/>
+      <c r="B825" s="28"/>
     </row>
     <row r="826">
-      <c r="B826" s="27"/>
+      <c r="B826" s="28"/>
     </row>
     <row r="827">
-      <c r="B827" s="27"/>
+      <c r="B827" s="28"/>
     </row>
     <row r="828">
-      <c r="B828" s="27"/>
+      <c r="B828" s="28"/>
     </row>
     <row r="829">
-      <c r="B829" s="27"/>
+      <c r="B829" s="28"/>
     </row>
     <row r="830">
-      <c r="B830" s="27"/>
+      <c r="B830" s="28"/>
     </row>
     <row r="831">
-      <c r="B831" s="27"/>
+      <c r="B831" s="28"/>
     </row>
     <row r="832">
-      <c r="B832" s="27"/>
+      <c r="B832" s="28"/>
     </row>
     <row r="833">
-      <c r="B833" s="27"/>
+      <c r="B833" s="28"/>
     </row>
     <row r="834">
-      <c r="B834" s="27"/>
+      <c r="B834" s="28"/>
     </row>
     <row r="835">
-      <c r="B835" s="27"/>
+      <c r="B835" s="28"/>
     </row>
     <row r="836">
-      <c r="B836" s="27"/>
+      <c r="B836" s="28"/>
     </row>
     <row r="837">
-      <c r="B837" s="27"/>
+      <c r="B837" s="28"/>
     </row>
     <row r="838">
-      <c r="B838" s="27"/>
+      <c r="B838" s="28"/>
     </row>
     <row r="839">
-      <c r="B839" s="27"/>
+      <c r="B839" s="28"/>
     </row>
     <row r="840">
-      <c r="B840" s="27"/>
+      <c r="B840" s="28"/>
     </row>
     <row r="841">
-      <c r="B841" s="27"/>
+      <c r="B841" s="28"/>
     </row>
     <row r="842">
-      <c r="B842" s="27"/>
+      <c r="B842" s="28"/>
     </row>
     <row r="843">
-      <c r="B843" s="27"/>
+      <c r="B843" s="28"/>
     </row>
     <row r="844">
-      <c r="B844" s="27"/>
+      <c r="B844" s="28"/>
     </row>
     <row r="845">
-      <c r="B845" s="27"/>
+      <c r="B845" s="28"/>
     </row>
     <row r="846">
-      <c r="B846" s="27"/>
+      <c r="B846" s="28"/>
     </row>
     <row r="847">
-      <c r="B847" s="27"/>
+      <c r="B847" s="28"/>
     </row>
     <row r="848">
-      <c r="B848" s="27"/>
+      <c r="B848" s="28"/>
     </row>
     <row r="849">
-      <c r="B849" s="27"/>
+      <c r="B849" s="28"/>
     </row>
     <row r="850">
-      <c r="B850" s="27"/>
+      <c r="B850" s="28"/>
     </row>
     <row r="851">
-      <c r="B851" s="27"/>
+      <c r="B851" s="28"/>
     </row>
     <row r="852">
-      <c r="B852" s="27"/>
+      <c r="B852" s="28"/>
     </row>
     <row r="853">
-      <c r="B853" s="27"/>
+      <c r="B853" s="28"/>
     </row>
     <row r="854">
-      <c r="B854" s="27"/>
+      <c r="B854" s="28"/>
     </row>
     <row r="855">
-      <c r="B855" s="27"/>
+      <c r="B855" s="28"/>
     </row>
     <row r="856">
-      <c r="B856" s="27"/>
+      <c r="B856" s="28"/>
     </row>
     <row r="857">
-      <c r="B857" s="27"/>
+      <c r="B857" s="28"/>
     </row>
     <row r="858">
-      <c r="B858" s="27"/>
+      <c r="B858" s="28"/>
     </row>
     <row r="859">
-      <c r="B859" s="27"/>
+      <c r="B859" s="28"/>
     </row>
     <row r="860">
-      <c r="B860" s="27"/>
+      <c r="B860" s="28"/>
     </row>
     <row r="861">
-      <c r="B861" s="27"/>
+      <c r="B861" s="28"/>
     </row>
     <row r="862">
-      <c r="B862" s="27"/>
+      <c r="B862" s="28"/>
     </row>
     <row r="863">
-      <c r="B863" s="27"/>
+      <c r="B863" s="28"/>
     </row>
     <row r="864">
-      <c r="B864" s="27"/>
+      <c r="B864" s="28"/>
     </row>
     <row r="865">
-      <c r="B865" s="27"/>
+      <c r="B865" s="28"/>
     </row>
     <row r="866">
-      <c r="B866" s="27"/>
+      <c r="B866" s="28"/>
     </row>
     <row r="867">
-      <c r="B867" s="27"/>
+      <c r="B867" s="28"/>
     </row>
     <row r="868">
-      <c r="B868" s="27"/>
+      <c r="B868" s="28"/>
     </row>
     <row r="869">
-      <c r="B869" s="27"/>
+      <c r="B869" s="28"/>
     </row>
     <row r="870">
-      <c r="B870" s="27"/>
+      <c r="B870" s="28"/>
     </row>
     <row r="871">
-      <c r="B871" s="27"/>
+      <c r="B871" s="28"/>
     </row>
     <row r="872">
-      <c r="B872" s="27"/>
+      <c r="B872" s="28"/>
     </row>
     <row r="873">
-      <c r="B873" s="27"/>
+      <c r="B873" s="28"/>
     </row>
     <row r="874">
-      <c r="B874" s="27"/>
+      <c r="B874" s="28"/>
     </row>
     <row r="875">
-      <c r="B875" s="27"/>
+      <c r="B875" s="28"/>
     </row>
     <row r="876">
-      <c r="B876" s="27"/>
+      <c r="B876" s="28"/>
     </row>
     <row r="877">
-      <c r="B877" s="27"/>
+      <c r="B877" s="28"/>
     </row>
     <row r="878">
-      <c r="B878" s="27"/>
+      <c r="B878" s="28"/>
     </row>
     <row r="879">
-      <c r="B879" s="27"/>
+      <c r="B879" s="28"/>
     </row>
     <row r="880">
-      <c r="B880" s="27"/>
+      <c r="B880" s="28"/>
     </row>
     <row r="881">
-      <c r="B881" s="27"/>
+      <c r="B881" s="28"/>
     </row>
     <row r="882">
-      <c r="B882" s="27"/>
+      <c r="B882" s="28"/>
     </row>
     <row r="883">
-      <c r="B883" s="27"/>
+      <c r="B883" s="28"/>
     </row>
     <row r="884">
-      <c r="B884" s="27"/>
+      <c r="B884" s="28"/>
     </row>
     <row r="885">
-      <c r="B885" s="27"/>
+      <c r="B885" s="28"/>
     </row>
     <row r="886">
-      <c r="B886" s="27"/>
+      <c r="B886" s="28"/>
     </row>
     <row r="887">
-      <c r="B887" s="27"/>
+      <c r="B887" s="28"/>
     </row>
     <row r="888">
-      <c r="B888" s="27"/>
+      <c r="B888" s="28"/>
     </row>
     <row r="889">
-      <c r="B889" s="27"/>
+      <c r="B889" s="28"/>
     </row>
     <row r="890">
-      <c r="B890" s="27"/>
+      <c r="B890" s="28"/>
     </row>
     <row r="891">
-      <c r="B891" s="27"/>
+      <c r="B891" s="28"/>
     </row>
     <row r="892">
-      <c r="B892" s="27"/>
+      <c r="B892" s="28"/>
     </row>
     <row r="893">
-      <c r="B893" s="27"/>
+      <c r="B893" s="28"/>
     </row>
     <row r="894">
-      <c r="B894" s="27"/>
+      <c r="B894" s="28"/>
     </row>
     <row r="895">
-      <c r="B895" s="27"/>
+      <c r="B895" s="28"/>
     </row>
     <row r="896">
-      <c r="B896" s="27"/>
+      <c r="B896" s="28"/>
     </row>
     <row r="897">
-      <c r="B897" s="27"/>
+      <c r="B897" s="28"/>
     </row>
     <row r="898">
-      <c r="B898" s="27"/>
+      <c r="B898" s="28"/>
     </row>
     <row r="899">
-      <c r="B899" s="27"/>
+      <c r="B899" s="28"/>
     </row>
     <row r="900">
-      <c r="B900" s="27"/>
+      <c r="B900" s="28"/>
     </row>
     <row r="901">
-      <c r="B901" s="27"/>
+      <c r="B901" s="28"/>
     </row>
     <row r="902">
-      <c r="B902" s="27"/>
+      <c r="B902" s="28"/>
     </row>
     <row r="903">
-      <c r="B903" s="27"/>
+      <c r="B903" s="28"/>
     </row>
     <row r="904">
-      <c r="B904" s="27"/>
+      <c r="B904" s="28"/>
     </row>
     <row r="905">
-      <c r="B905" s="27"/>
+      <c r="B905" s="28"/>
     </row>
     <row r="906">
-      <c r="B906" s="27"/>
+      <c r="B906" s="28"/>
     </row>
     <row r="907">
-      <c r="B907" s="27"/>
+      <c r="B907" s="28"/>
     </row>
     <row r="908">
-      <c r="B908" s="27"/>
+      <c r="B908" s="28"/>
     </row>
     <row r="909">
-      <c r="B909" s="27"/>
+      <c r="B909" s="28"/>
     </row>
     <row r="910">
-      <c r="B910" s="27"/>
+      <c r="B910" s="28"/>
     </row>
     <row r="911">
-      <c r="B911" s="27"/>
+      <c r="B911" s="28"/>
     </row>
     <row r="912">
-      <c r="B912" s="27"/>
+      <c r="B912" s="28"/>
     </row>
     <row r="913">
-      <c r="B913" s="27"/>
+      <c r="B913" s="28"/>
     </row>
     <row r="914">
-      <c r="B914" s="27"/>
+      <c r="B914" s="28"/>
     </row>
     <row r="915">
-      <c r="B915" s="27"/>
+      <c r="B915" s="28"/>
     </row>
     <row r="916">
-      <c r="B916" s="27"/>
+      <c r="B916" s="28"/>
     </row>
     <row r="917">
-      <c r="B917" s="27"/>
+      <c r="B917" s="28"/>
     </row>
     <row r="918">
-      <c r="B918" s="27"/>
+      <c r="B918" s="28"/>
     </row>
     <row r="919">
-      <c r="B919" s="27"/>
+      <c r="B919" s="28"/>
     </row>
     <row r="920">
-      <c r="B920" s="27"/>
+      <c r="B920" s="28"/>
     </row>
     <row r="921">
-      <c r="B921" s="27"/>
+      <c r="B921" s="28"/>
     </row>
     <row r="922">
-      <c r="B922" s="27"/>
+      <c r="B922" s="28"/>
     </row>
     <row r="923">
-      <c r="B923" s="27"/>
+      <c r="B923" s="28"/>
     </row>
     <row r="924">
-      <c r="B924" s="27"/>
+      <c r="B924" s="28"/>
     </row>
     <row r="925">
-      <c r="B925" s="27"/>
+      <c r="B925" s="28"/>
     </row>
     <row r="926">
-      <c r="B926" s="27"/>
+      <c r="B926" s="28"/>
     </row>
     <row r="927">
-      <c r="B927" s="27"/>
+      <c r="B927" s="28"/>
     </row>
     <row r="928">
-      <c r="B928" s="27"/>
+      <c r="B928" s="28"/>
     </row>
     <row r="929">
-      <c r="B929" s="27"/>
+      <c r="B929" s="28"/>
     </row>
     <row r="930">
-      <c r="B930" s="27"/>
+      <c r="B930" s="28"/>
     </row>
     <row r="931">
-      <c r="B931" s="27"/>
+      <c r="B931" s="28"/>
     </row>
     <row r="932">
-      <c r="B932" s="27"/>
+      <c r="B932" s="28"/>
     </row>
     <row r="933">
-      <c r="B933" s="27"/>
+      <c r="B933" s="28"/>
     </row>
     <row r="934">
-      <c r="B934" s="27"/>
+      <c r="B934" s="28"/>
     </row>
     <row r="935">
-      <c r="B935" s="27"/>
+      <c r="B935" s="28"/>
     </row>
     <row r="936">
-      <c r="B936" s="27"/>
+      <c r="B936" s="28"/>
     </row>
     <row r="937">
-      <c r="B937" s="27"/>
+      <c r="B937" s="28"/>
     </row>
     <row r="938">
-      <c r="B938" s="27"/>
+      <c r="B938" s="28"/>
     </row>
     <row r="939">
-      <c r="B939" s="27"/>
+      <c r="B939" s="28"/>
     </row>
     <row r="940">
-      <c r="B940" s="27"/>
+      <c r="B940" s="28"/>
     </row>
     <row r="941">
-      <c r="B941" s="27"/>
+      <c r="B941" s="28"/>
     </row>
     <row r="942">
-      <c r="B942" s="27"/>
+      <c r="B942" s="28"/>
     </row>
     <row r="943">
-      <c r="B943" s="27"/>
+      <c r="B943" s="28"/>
     </row>
     <row r="944">
-      <c r="B944" s="27"/>
+      <c r="B944" s="28"/>
     </row>
     <row r="945">
-      <c r="B945" s="27"/>
+      <c r="B945" s="28"/>
     </row>
     <row r="946">
-      <c r="B946" s="27"/>
+      <c r="B946" s="28"/>
     </row>
     <row r="947">
-      <c r="B947" s="27"/>
+      <c r="B947" s="28"/>
     </row>
     <row r="948">
-      <c r="B948" s="27"/>
+      <c r="B948" s="28"/>
     </row>
     <row r="949">
-      <c r="B949" s="27"/>
+      <c r="B949" s="28"/>
     </row>
     <row r="950">
-      <c r="B950" s="27"/>
+      <c r="B950" s="28"/>
     </row>
     <row r="951">
-      <c r="B951" s="27"/>
+      <c r="B951" s="28"/>
     </row>
     <row r="952">
-      <c r="B952" s="27"/>
+      <c r="B952" s="28"/>
     </row>
     <row r="953">
-      <c r="B953" s="27"/>
+      <c r="B953" s="28"/>
     </row>
     <row r="954">
-      <c r="B954" s="27"/>
+      <c r="B954" s="28"/>
     </row>
     <row r="955">
-      <c r="B955" s="27"/>
+      <c r="B955" s="28"/>
     </row>
     <row r="956">
-      <c r="B956" s="27"/>
+      <c r="B956" s="28"/>
     </row>
     <row r="957">
-      <c r="B957" s="27"/>
+      <c r="B957" s="28"/>
     </row>
     <row r="958">
-      <c r="B958" s="27"/>
+      <c r="B958" s="28"/>
     </row>
     <row r="959">
-      <c r="B959" s="27"/>
+      <c r="B959" s="28"/>
     </row>
     <row r="960">
-      <c r="B960" s="27"/>
+      <c r="B960" s="28"/>
     </row>
     <row r="961">
-      <c r="B961" s="27"/>
+      <c r="B961" s="28"/>
     </row>
     <row r="962">
-      <c r="B962" s="27"/>
+      <c r="B962" s="28"/>
     </row>
     <row r="963">
-      <c r="B963" s="27"/>
+      <c r="B963" s="28"/>
     </row>
     <row r="964">
-      <c r="B964" s="27"/>
+      <c r="B964" s="28"/>
     </row>
     <row r="965">
-      <c r="B965" s="27"/>
+      <c r="B965" s="28"/>
     </row>
     <row r="966">
-      <c r="B966" s="27"/>
+      <c r="B966" s="28"/>
     </row>
     <row r="967">
-      <c r="B967" s="27"/>
+      <c r="B967" s="28"/>
     </row>
     <row r="968">
-      <c r="B968" s="27"/>
+      <c r="B968" s="28"/>
     </row>
     <row r="969">
-      <c r="B969" s="27"/>
+      <c r="B969" s="28"/>
     </row>
     <row r="970">
-      <c r="B970" s="27"/>
+      <c r="B970" s="28"/>
     </row>
     <row r="971">
-      <c r="B971" s="27"/>
+      <c r="B971" s="28"/>
     </row>
     <row r="972">
-      <c r="B972" s="27"/>
+      <c r="B972" s="28"/>
     </row>
     <row r="973">
-      <c r="B973" s="27"/>
+      <c r="B973" s="28"/>
     </row>
     <row r="974">
-      <c r="B974" s="27"/>
+      <c r="B974" s="28"/>
     </row>
     <row r="975">
-      <c r="B975" s="27"/>
+      <c r="B975" s="28"/>
     </row>
     <row r="976">
-      <c r="B976" s="27"/>
+      <c r="B976" s="28"/>
     </row>
     <row r="977">
-      <c r="B977" s="27"/>
+      <c r="B977" s="28"/>
     </row>
     <row r="978">
-      <c r="B978" s="27"/>
+      <c r="B978" s="28"/>
     </row>
     <row r="979">
-      <c r="B979" s="27"/>
+      <c r="B979" s="28"/>
     </row>
     <row r="980">
-      <c r="B980" s="27"/>
+      <c r="B980" s="28"/>
     </row>
     <row r="981">
-      <c r="B981" s="27"/>
+      <c r="B981" s="28"/>
     </row>
     <row r="982">
-      <c r="B982" s="27"/>
+      <c r="B982" s="28"/>
     </row>
     <row r="983">
-      <c r="B983" s="27"/>
+      <c r="B983" s="28"/>
     </row>
     <row r="984">
-      <c r="B984" s="27"/>
+      <c r="B984" s="28"/>
     </row>
     <row r="985">
-      <c r="B985" s="27"/>
+      <c r="B985" s="28"/>
     </row>
     <row r="986">
-      <c r="B986" s="27"/>
+      <c r="B986" s="28"/>
     </row>
     <row r="987">
-      <c r="B987" s="27"/>
+      <c r="B987" s="28"/>
     </row>
     <row r="988">
-      <c r="B988" s="27"/>
+      <c r="B988" s="28"/>
     </row>
     <row r="989">
-      <c r="B989" s="27"/>
+      <c r="B989" s="28"/>
     </row>
     <row r="990">
-      <c r="B990" s="27"/>
+      <c r="B990" s="28"/>
     </row>
     <row r="991">
-      <c r="B991" s="27"/>
+      <c r="B991" s="28"/>
     </row>
     <row r="992">
-      <c r="B992" s="27"/>
+      <c r="B992" s="28"/>
     </row>
     <row r="993">
-      <c r="B993" s="27"/>
+      <c r="B993" s="28"/>
     </row>
     <row r="994">
-      <c r="B994" s="27"/>
+      <c r="B994" s="28"/>
     </row>
     <row r="995">
-      <c r="B995" s="27"/>
+      <c r="B995" s="28"/>
     </row>
     <row r="996">
-      <c r="B996" s="27"/>
+      <c r="B996" s="28"/>
     </row>
     <row r="997">
-      <c r="B997" s="27"/>
+      <c r="B997" s="28"/>
     </row>
     <row r="998">
-      <c r="B998" s="27"/>
+      <c r="B998" s="28"/>
     </row>
     <row r="999">
-      <c r="B999" s="27"/>
+      <c r="B999" s="28"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="27"/>
+      <c r="B1000" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
